--- a/documents/進捗管理.xlsx
+++ b/documents/進捗管理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiraishi\Dropbox\サロンドエフ\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\idstaff\1.制作\1.WEBサイト&amp;プロジェクト\SalonDeEf\SalonDeEf3_git\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D5535-58A2-45CE-8B5E-ED494B7D8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF708003-D14A-45A5-A767-50CE6B799BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ページ作業状況" sheetId="2" r:id="rId1"/>
@@ -21,12 +21,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="G - 個人用ビュー" guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1195" windowHeight="586" tabRatio="654" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="A - 個人用ビュー" guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="848" activeSheetId="3"/>
+    <customWorkbookView name="ｗ - 個人用ビュー" guid="{A6F0DBC3-E4B8-4F92-918E-E4362FFA54B3}" mergeInterval="0" personalView="1" xWindow="41" yWindow="19" windowWidth="1229" windowHeight="868" activeSheetId="2"/>
+    <customWorkbookView name="w - 個人用ビュー" guid="{9B6A725A-C080-4BD2-9734-6B581A745C14}" mergeInterval="0" personalView="1" xWindow="131" yWindow="25" windowWidth="1214" windowHeight="635" activeSheetId="4"/>
+    <customWorkbookView name="webstaff - 個人用ビュー" guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="875" tabRatio="654" activeSheetId="4"/>
     <customWorkbookView name="shiraishi - 個人用ビュー" guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="860" tabRatio="654" activeSheetId="1"/>
-    <customWorkbookView name="webstaff - 個人用ビュー" guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="875" tabRatio="654" activeSheetId="4"/>
-    <customWorkbookView name="w - 個人用ビュー" guid="{9B6A725A-C080-4BD2-9734-6B581A745C14}" mergeInterval="0" personalView="1" xWindow="131" yWindow="25" windowWidth="1214" windowHeight="635" activeSheetId="4"/>
-    <customWorkbookView name="ｗ - 個人用ビュー" guid="{A6F0DBC3-E4B8-4F92-918E-E4362FFA54B3}" mergeInterval="0" personalView="1" xWindow="41" yWindow="19" windowWidth="1229" windowHeight="868" activeSheetId="2"/>
-    <customWorkbookView name="A - 個人用ビュー" guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="848" activeSheetId="3"/>
-    <customWorkbookView name="G - 個人用ビュー" guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1195" windowHeight="586" tabRatio="654" activeSheetId="2" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
   <si>
     <t>ページ名</t>
     <rPh sb="3" eb="4">
@@ -1415,19 +1415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2月以降の作成</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>済</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
@@ -1526,18 +1513,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不要なページになりました</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/epi/self-epilation.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「現在準備中」の表記のみでページを用意</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1692,6 +1686,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3009,7 +3010,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3644,31 +3645,61 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3685,35 +3716,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5574,7 +5578,7 @@
   <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5757,16 +5761,16 @@
       <c r="E5" s="29"/>
       <c r="F5" s="108"/>
       <c r="G5" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>227</v>
-      </c>
       <c r="I5" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>226</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>227</v>
       </c>
       <c r="K5" s="69"/>
       <c r="L5" s="75"/>
@@ -5791,8 +5795,8 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="109" t="s">
-        <v>228</v>
+      <c r="F6" s="235" t="s">
+        <v>227</v>
       </c>
       <c r="G6" s="56"/>
       <c r="H6" s="53"/>
@@ -5822,23 +5826,23 @@
       <c r="D7" s="27"/>
       <c r="E7" s="22"/>
       <c r="F7" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="53"/>
       <c r="I7" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="70" t="s">
         <v>226</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>227</v>
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="75"/>
       <c r="M7" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="N7" s="69" t="s">
         <v>226</v>
-      </c>
-      <c r="N7" s="69" t="s">
-        <v>227</v>
       </c>
       <c r="O7" s="75"/>
       <c r="P7" s="32"/>
@@ -5860,46 +5864,46 @@
       <c r="D8" s="27"/>
       <c r="E8" s="22"/>
       <c r="F8" s="109" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="L8" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="M8" s="83" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="N8" s="69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="O8" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="R8" s="64" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="S8" s="191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T8" s="6"/>
     </row>
@@ -5916,23 +5920,23 @@
       <c r="D9" s="27"/>
       <c r="E9" s="22"/>
       <c r="F9" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="53"/>
       <c r="I9" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="70" t="s">
         <v>226</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>227</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="75"/>
       <c r="M9" s="83" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N9" s="69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O9" s="75"/>
       <c r="P9" s="32"/>
@@ -5953,8 +5957,8 @@
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="22"/>
-      <c r="F10" s="109" t="s">
-        <v>228</v>
+      <c r="F10" s="235" t="s">
+        <v>227</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="53"/>
@@ -5984,46 +5988,46 @@
       <c r="D11" s="3"/>
       <c r="E11" s="22"/>
       <c r="F11" s="109" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="K11" s="69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="L11" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="M11" s="83" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="N11" s="71" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="O11" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="S11" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T11" s="6"/>
     </row>
@@ -6039,8 +6043,8 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="109" t="s">
-        <v>225</v>
+      <c r="F12" s="235" t="s">
+        <v>227</v>
       </c>
       <c r="G12" s="56"/>
       <c r="H12" s="53"/>
@@ -6070,36 +6074,64 @@
       <c r="D13" s="3"/>
       <c r="E13" s="22"/>
       <c r="F13" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="64"/>
+        <v>241</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>145</v>
+      </c>
       <c r="S13" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="189" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="189" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="109"/>
+      <c r="F14" s="235" t="s">
+        <v>227</v>
+      </c>
       <c r="G14" s="56"/>
       <c r="H14" s="53"/>
       <c r="I14" s="32"/>
@@ -6127,8 +6159,8 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="109" t="s">
-        <v>228</v>
+      <c r="F15" s="235" t="s">
+        <v>227</v>
       </c>
       <c r="G15" s="56"/>
       <c r="H15" s="53"/>
@@ -6158,7 +6190,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="22"/>
       <c r="F16" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" s="56"/>
       <c r="H16" s="53"/>
@@ -6188,46 +6220,46 @@
       <c r="D17" s="3"/>
       <c r="E17" s="22"/>
       <c r="F17" s="109" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="K17" s="69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="L17" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="N17" s="71" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="O17" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="R17" s="64" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="S17" s="191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T17" s="6"/>
     </row>
@@ -6244,7 +6276,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="22"/>
       <c r="F18" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G18" s="56"/>
       <c r="H18" s="53"/>
@@ -6274,7 +6306,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="22"/>
       <c r="F19" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G19" s="56"/>
       <c r="H19" s="53"/>
@@ -6304,60 +6336,62 @@
       <c r="D20" s="3"/>
       <c r="E20" s="22"/>
       <c r="F20" s="109" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="G20" s="56" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="K20" s="69" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="L20" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="M20" s="83" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="N20" s="71" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="O20" s="75" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="R20" s="64" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="S20" s="191" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="189" t="s">
         <v>233</v>
-      </c>
-      <c r="B21" s="189" t="s">
-        <v>234</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="109"/>
+      <c r="F21" s="235" t="s">
+        <v>227</v>
+      </c>
       <c r="G21" s="56"/>
       <c r="H21" s="53"/>
       <c r="I21" s="32"/>
@@ -6386,21 +6420,47 @@
       <c r="D22" s="3"/>
       <c r="E22" s="22"/>
       <c r="F22" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="60"/>
+        <v>241</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q22" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="S22" s="191" t="s">
+        <v>242</v>
+      </c>
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6416,21 +6476,21 @@
       <c r="D23" s="3"/>
       <c r="E23" s="22"/>
       <c r="F23" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G23" s="56"/>
       <c r="H23" s="53"/>
       <c r="I23" s="83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J23" s="70"/>
       <c r="K23" s="69"/>
       <c r="L23" s="75"/>
       <c r="M23" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="N23" s="71" t="s">
         <v>226</v>
-      </c>
-      <c r="N23" s="71" t="s">
-        <v>227</v>
       </c>
       <c r="O23" s="75"/>
       <c r="P23" s="32"/>
@@ -6452,21 +6512,21 @@
       <c r="D24" s="3"/>
       <c r="E24" s="22"/>
       <c r="F24" s="109" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="53"/>
       <c r="I24" s="83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="69"/>
       <c r="L24" s="75"/>
       <c r="M24" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="N24" s="71" t="s">
         <v>226</v>
-      </c>
-      <c r="N24" s="71" t="s">
-        <v>227</v>
       </c>
       <c r="O24" s="75"/>
       <c r="P24" s="32"/>
@@ -6497,7 +6557,7 @@
       <c r="K25" s="39"/>
       <c r="L25" s="75"/>
       <c r="M25" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N25" s="71"/>
       <c r="O25" s="75"/>
@@ -6529,7 +6589,7 @@
       <c r="K26" s="39"/>
       <c r="L26" s="75"/>
       <c r="M26" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N26" s="71"/>
       <c r="O26" s="75"/>
@@ -6552,7 +6612,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="22"/>
       <c r="F27" s="109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="54"/>
@@ -6561,7 +6621,7 @@
       <c r="K27" s="39"/>
       <c r="L27" s="75"/>
       <c r="M27" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N27" s="71"/>
       <c r="O27" s="75"/>
@@ -6593,10 +6653,10 @@
       <c r="K28" s="39"/>
       <c r="L28" s="75"/>
       <c r="M28" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="N28" s="71" t="s">
         <v>226</v>
-      </c>
-      <c r="N28" s="71" t="s">
-        <v>227</v>
       </c>
       <c r="O28" s="75"/>
       <c r="P28" s="34"/>
@@ -6625,10 +6685,10 @@
       <c r="K29" s="39"/>
       <c r="L29" s="75"/>
       <c r="M29" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="N29" s="71" t="s">
         <v>226</v>
-      </c>
-      <c r="N29" s="71" t="s">
-        <v>227</v>
       </c>
       <c r="O29" s="75"/>
       <c r="P29" s="34"/>
@@ -6657,10 +6717,10 @@
       <c r="K30" s="39"/>
       <c r="L30" s="75"/>
       <c r="M30" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="70" t="s">
         <v>226</v>
-      </c>
-      <c r="N30" s="70" t="s">
-        <v>227</v>
       </c>
       <c r="O30" s="75"/>
       <c r="P30" s="34"/>
@@ -6689,10 +6749,10 @@
       <c r="K31" s="39"/>
       <c r="L31" s="75"/>
       <c r="M31" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="N31" s="71" t="s">
         <v>226</v>
-      </c>
-      <c r="N31" s="71" t="s">
-        <v>227</v>
       </c>
       <c r="O31" s="75"/>
       <c r="P31" s="34"/>
@@ -7371,16 +7431,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}" topLeftCell="A43">
-      <selection activeCell="L65" sqref="L65"/>
+    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0" topLeftCell="F19">
+      <selection activeCell="R32" sqref="R32"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0" topLeftCell="A31">
-      <selection activeCell="E46" sqref="E46"/>
+    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0" topLeftCell="A4">
+      <selection activeCell="P26" sqref="P26"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{9B6A725A-C080-4BD2-9734-6B581A745C14}" showRuler="0" topLeftCell="D13">
@@ -7389,14 +7449,14 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0" topLeftCell="A4">
-      <selection activeCell="P26" sqref="P26"/>
+    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0" topLeftCell="A31">
+      <selection activeCell="E46" sqref="E46"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0" topLeftCell="F19">
-      <selection activeCell="R32" sqref="R32"/>
+    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}" topLeftCell="A43">
+      <selection activeCell="L65" sqref="L65"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
@@ -8282,14 +8342,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}" topLeftCell="D28">
-      <selection activeCell="E41" sqref="E41"/>
+    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0" topLeftCell="D30">
+      <selection activeCell="I37" sqref="I37"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0" topLeftCell="D30">
-      <selection activeCell="I37" sqref="I37"/>
+    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0">
+      <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
@@ -8300,14 +8360,14 @@
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0" topLeftCell="D30">
+      <selection activeCell="I37" sqref="I37"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0" topLeftCell="D30">
-      <selection activeCell="I37" sqref="I37"/>
+    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}" topLeftCell="D28">
+      <selection activeCell="E41" sqref="E41"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
@@ -8387,2255 +8447,2606 @@
       <c r="G1" s="142"/>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="213">
+      <c r="A2" s="211">
         <v>1</v>
       </c>
       <c r="B2" s="147"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="215"/>
       <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="214"/>
+      <c r="A3" s="212"/>
       <c r="B3" s="150"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
       <c r="F3" s="216"/>
       <c r="G3" s="142"/>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="213">
+      <c r="A4" s="211">
         <v>2</v>
       </c>
       <c r="B4" s="147"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="219"/>
       <c r="G4" s="142"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="214"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="149"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
       <c r="F5" s="216"/>
       <c r="G5" s="142"/>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="213">
+      <c r="A6" s="211">
         <v>3</v>
       </c>
       <c r="B6" s="147"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
       <c r="F6" s="215"/>
       <c r="G6" s="142"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="214"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="150"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
       <c r="F7" s="216"/>
       <c r="G7" s="142"/>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="213">
+      <c r="A8" s="211">
         <v>4</v>
       </c>
       <c r="B8" s="147"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
       <c r="F8" s="215"/>
       <c r="G8" s="142"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="214"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="150"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
       <c r="F9" s="216"/>
       <c r="G9" s="142"/>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="213">
+      <c r="A10" s="211">
         <v>5</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="217"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="219"/>
       <c r="G10" s="142"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="214"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="148"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="214"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
       <c r="F11" s="216"/>
       <c r="G11" s="142"/>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="213">
+      <c r="A12" s="211">
         <v>6</v>
       </c>
       <c r="B12" s="147"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
       <c r="F12" s="215"/>
       <c r="G12" s="142"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="214"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="148"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
       <c r="F13" s="216"/>
       <c r="G13" s="142"/>
     </row>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="213">
+      <c r="A14" s="211">
         <v>7</v>
       </c>
       <c r="B14" s="147"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
       <c r="F14" s="215"/>
       <c r="G14" s="142"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="214"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="148"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
       <c r="F15" s="216"/>
       <c r="G15" s="142"/>
     </row>
     <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="213">
+      <c r="A16" s="211">
         <v>8</v>
       </c>
       <c r="B16" s="147"/>
-      <c r="C16" s="211"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
       <c r="F16" s="215"/>
       <c r="G16" s="142"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="214"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="150"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
       <c r="F17" s="216"/>
       <c r="G17" s="142"/>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="213">
+      <c r="A18" s="211">
         <v>9</v>
       </c>
       <c r="B18" s="147"/>
-      <c r="C18" s="211"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
       <c r="F18" s="215"/>
       <c r="G18" s="142"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="214"/>
+      <c r="A19" s="212"/>
       <c r="B19" s="148"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
       <c r="F19" s="216"/>
       <c r="G19" s="142"/>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="213">
+      <c r="A20" s="211">
         <v>10</v>
       </c>
       <c r="B20" s="147"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
       <c r="F20" s="215"/>
       <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="214"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="150"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
       <c r="F21" s="216"/>
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="213">
+      <c r="A22" s="211">
         <v>11</v>
       </c>
       <c r="B22" s="147"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
       <c r="F22" s="215"/>
       <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="214"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="148"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
       <c r="F23" s="216"/>
       <c r="G23" s="142"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="213">
+      <c r="A24" s="211">
         <v>12</v>
       </c>
       <c r="B24" s="147"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
       <c r="F24" s="215"/>
       <c r="G24" s="142"/>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="214"/>
+      <c r="A25" s="212"/>
       <c r="B25" s="148"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
       <c r="F25" s="216"/>
       <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="213">
+      <c r="A26" s="211">
         <v>13</v>
       </c>
       <c r="B26" s="147"/>
-      <c r="C26" s="211"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
       <c r="F26" s="215"/>
       <c r="G26" s="142"/>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="214"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="148"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
       <c r="F27" s="216"/>
       <c r="G27" s="142"/>
     </row>
     <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="213">
+      <c r="A28" s="211">
         <v>14</v>
       </c>
       <c r="B28" s="147"/>
-      <c r="C28" s="211"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="211"/>
       <c r="F28" s="215"/>
       <c r="G28" s="142"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="214"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="148"/>
-      <c r="C29" s="212"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="212"/>
       <c r="F29" s="216"/>
       <c r="G29" s="142"/>
     </row>
     <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="213">
+      <c r="A30" s="211">
         <v>15</v>
       </c>
       <c r="B30" s="147"/>
-      <c r="C30" s="211"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="211"/>
       <c r="F30" s="215"/>
       <c r="G30" s="142"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="214"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="148"/>
-      <c r="C31" s="212"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="212"/>
       <c r="F31" s="216"/>
       <c r="G31" s="142"/>
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="213">
+      <c r="A32" s="211">
         <v>16</v>
       </c>
       <c r="B32" s="147"/>
-      <c r="C32" s="211"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="211"/>
+      <c r="E32" s="211"/>
       <c r="F32" s="215"/>
       <c r="G32" s="142"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="214"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="148"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
       <c r="F33" s="216"/>
       <c r="G33" s="142"/>
     </row>
     <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="213">
+      <c r="A34" s="211">
         <v>17</v>
       </c>
       <c r="B34" s="147"/>
-      <c r="C34" s="211"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="211"/>
+      <c r="E34" s="211"/>
       <c r="F34" s="215"/>
       <c r="G34" s="142"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="214"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="148"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="216"/>
       <c r="G35" s="142"/>
     </row>
     <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="213">
+      <c r="A36" s="211">
         <v>18</v>
       </c>
       <c r="B36" s="147"/>
-      <c r="C36" s="211"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
       <c r="F36" s="215"/>
       <c r="G36" s="142"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="214"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="148"/>
-      <c r="C37" s="212"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
       <c r="F37" s="216"/>
       <c r="G37" s="142"/>
     </row>
     <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="213">
+      <c r="A38" s="211">
         <v>19</v>
       </c>
       <c r="B38" s="147"/>
-      <c r="C38" s="211"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
       <c r="F38" s="215"/>
       <c r="G38" s="142"/>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="214"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="148"/>
-      <c r="C39" s="212"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="212"/>
       <c r="F39" s="216"/>
       <c r="G39" s="142"/>
     </row>
     <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="213"/>
+      <c r="A40" s="211"/>
       <c r="B40" s="147"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="211"/>
       <c r="F40" s="215"/>
       <c r="G40" s="142"/>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="214"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="150"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="212"/>
       <c r="F41" s="216"/>
       <c r="G41" s="142"/>
     </row>
     <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="213"/>
+      <c r="A42" s="211"/>
       <c r="B42" s="147"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="213"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="211"/>
       <c r="F42" s="215"/>
       <c r="G42" s="142"/>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="214"/>
+      <c r="A43" s="212"/>
       <c r="B43" s="150"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="214"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="212"/>
       <c r="F43" s="216"/>
       <c r="G43" s="142"/>
     </row>
     <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="213"/>
+      <c r="A44" s="211"/>
       <c r="B44" s="147"/>
-      <c r="C44" s="218"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="213"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
       <c r="F44" s="215"/>
       <c r="G44" s="142"/>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="214"/>
+      <c r="A45" s="212"/>
       <c r="B45" s="150"/>
-      <c r="C45" s="219"/>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
+      <c r="C45" s="214"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
       <c r="F45" s="216"/>
       <c r="G45" s="142"/>
     </row>
     <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="213"/>
+      <c r="A46" s="211"/>
       <c r="B46" s="147"/>
-      <c r="C46" s="218"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="211"/>
+      <c r="E46" s="211"/>
       <c r="F46" s="215"/>
       <c r="G46" s="142"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="214"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="150"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="214"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="212"/>
+      <c r="E47" s="212"/>
       <c r="F47" s="216"/>
       <c r="G47" s="142"/>
     </row>
     <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="213"/>
+      <c r="A48" s="211"/>
       <c r="B48" s="147"/>
-      <c r="C48" s="218"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="213"/>
+      <c r="C48" s="213"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
       <c r="F48" s="215"/>
       <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="214"/>
+      <c r="A49" s="212"/>
       <c r="B49" s="150"/>
-      <c r="C49" s="219"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="214"/>
+      <c r="C49" s="214"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212"/>
       <c r="F49" s="216"/>
       <c r="G49" s="142"/>
     </row>
     <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="213"/>
+      <c r="A50" s="211"/>
       <c r="B50" s="147"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="213"/>
+      <c r="C50" s="213"/>
+      <c r="D50" s="211"/>
+      <c r="E50" s="211"/>
       <c r="F50" s="215"/>
       <c r="G50" s="142"/>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="214"/>
+      <c r="A51" s="212"/>
       <c r="B51" s="150"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="214"/>
-      <c r="E51" s="214"/>
+      <c r="C51" s="214"/>
+      <c r="D51" s="212"/>
+      <c r="E51" s="212"/>
       <c r="F51" s="216"/>
       <c r="G51" s="142"/>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="213"/>
+      <c r="A52" s="211"/>
       <c r="B52" s="147"/>
-      <c r="C52" s="218"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="211"/>
+      <c r="E52" s="211"/>
       <c r="F52" s="215"/>
       <c r="G52" s="142"/>
     </row>
     <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="214"/>
+      <c r="A53" s="212"/>
       <c r="B53" s="150"/>
-      <c r="C53" s="219"/>
-      <c r="D53" s="214"/>
-      <c r="E53" s="214"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="212"/>
+      <c r="E53" s="212"/>
       <c r="F53" s="216"/>
       <c r="G53" s="142"/>
     </row>
     <row r="54" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="213"/>
+      <c r="A54" s="211"/>
       <c r="B54" s="147"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
+      <c r="C54" s="213"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="211"/>
       <c r="F54" s="215"/>
       <c r="G54" s="142"/>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="214"/>
+      <c r="A55" s="212"/>
       <c r="B55" s="150"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="214"/>
+      <c r="C55" s="214"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
       <c r="F55" s="216"/>
       <c r="G55" s="142"/>
     </row>
     <row r="56" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="213"/>
+      <c r="A56" s="211"/>
       <c r="B56" s="147"/>
-      <c r="C56" s="218"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213"/>
+      <c r="C56" s="213"/>
+      <c r="D56" s="211"/>
+      <c r="E56" s="211"/>
       <c r="F56" s="215"/>
       <c r="G56" s="142"/>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="214"/>
+      <c r="A57" s="212"/>
       <c r="B57" s="150"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="214"/>
-      <c r="E57" s="214"/>
+      <c r="C57" s="214"/>
+      <c r="D57" s="212"/>
+      <c r="E57" s="212"/>
       <c r="F57" s="216"/>
       <c r="G57" s="142"/>
     </row>
     <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="213"/>
+      <c r="A58" s="211"/>
       <c r="B58" s="147"/>
-      <c r="C58" s="218"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
+      <c r="C58" s="213"/>
+      <c r="D58" s="211"/>
+      <c r="E58" s="211"/>
       <c r="F58" s="215"/>
       <c r="G58" s="142"/>
     </row>
     <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="214"/>
+      <c r="A59" s="212"/>
       <c r="B59" s="150"/>
-      <c r="C59" s="219"/>
-      <c r="D59" s="214"/>
-      <c r="E59" s="214"/>
+      <c r="C59" s="214"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="212"/>
       <c r="F59" s="216"/>
       <c r="G59" s="142"/>
     </row>
     <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="213"/>
+      <c r="A60" s="211"/>
       <c r="B60" s="147"/>
-      <c r="C60" s="218"/>
-      <c r="D60" s="213"/>
-      <c r="E60" s="213"/>
+      <c r="C60" s="213"/>
+      <c r="D60" s="211"/>
+      <c r="E60" s="211"/>
       <c r="F60" s="215"/>
       <c r="G60" s="142"/>
     </row>
     <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="214"/>
+      <c r="A61" s="212"/>
       <c r="B61" s="150"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="214"/>
-      <c r="E61" s="214"/>
+      <c r="C61" s="214"/>
+      <c r="D61" s="212"/>
+      <c r="E61" s="212"/>
       <c r="F61" s="216"/>
       <c r="G61" s="142"/>
     </row>
     <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="213"/>
+      <c r="A62" s="211"/>
       <c r="B62" s="147"/>
-      <c r="C62" s="218"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="213"/>
+      <c r="C62" s="213"/>
+      <c r="D62" s="211"/>
+      <c r="E62" s="211"/>
       <c r="F62" s="215"/>
       <c r="G62" s="142"/>
     </row>
     <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="214"/>
+      <c r="A63" s="212"/>
       <c r="B63" s="150"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="214"/>
-      <c r="E63" s="214"/>
+      <c r="C63" s="214"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="212"/>
       <c r="F63" s="216"/>
       <c r="G63" s="142"/>
     </row>
     <row r="64" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="213"/>
+      <c r="A64" s="211"/>
       <c r="B64" s="147"/>
-      <c r="C64" s="218"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="213"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="211"/>
       <c r="F64" s="215"/>
       <c r="G64" s="142"/>
     </row>
     <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="214"/>
+      <c r="A65" s="212"/>
       <c r="B65" s="150"/>
-      <c r="C65" s="219"/>
-      <c r="D65" s="214"/>
-      <c r="E65" s="214"/>
+      <c r="C65" s="214"/>
+      <c r="D65" s="212"/>
+      <c r="E65" s="212"/>
       <c r="F65" s="216"/>
       <c r="G65" s="142"/>
     </row>
     <row r="66" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="213"/>
+      <c r="A66" s="211"/>
       <c r="B66" s="147"/>
-      <c r="C66" s="218"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="211"/>
       <c r="F66" s="215"/>
       <c r="G66" s="142"/>
     </row>
     <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="214"/>
+      <c r="A67" s="212"/>
       <c r="B67" s="150"/>
-      <c r="C67" s="219"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="214"/>
+      <c r="C67" s="214"/>
+      <c r="D67" s="212"/>
+      <c r="E67" s="212"/>
       <c r="F67" s="216"/>
       <c r="G67" s="142"/>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="213"/>
+      <c r="A68" s="211"/>
       <c r="B68" s="147"/>
-      <c r="C68" s="218"/>
-      <c r="D68" s="213"/>
-      <c r="E68" s="213"/>
+      <c r="C68" s="213"/>
+      <c r="D68" s="211"/>
+      <c r="E68" s="211"/>
       <c r="F68" s="215"/>
       <c r="G68" s="142"/>
     </row>
     <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="214"/>
+      <c r="A69" s="212"/>
       <c r="B69" s="150"/>
-      <c r="C69" s="219"/>
-      <c r="D69" s="214"/>
-      <c r="E69" s="214"/>
+      <c r="C69" s="214"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="216"/>
       <c r="G69" s="142"/>
     </row>
     <row r="70" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="213"/>
+      <c r="A70" s="211"/>
       <c r="B70" s="147"/>
-      <c r="C70" s="218"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="213"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="211"/>
+      <c r="E70" s="211"/>
       <c r="F70" s="215"/>
       <c r="G70" s="142"/>
     </row>
     <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="214"/>
+      <c r="A71" s="212"/>
       <c r="B71" s="150"/>
-      <c r="C71" s="219"/>
-      <c r="D71" s="214"/>
-      <c r="E71" s="214"/>
+      <c r="C71" s="214"/>
+      <c r="D71" s="212"/>
+      <c r="E71" s="212"/>
       <c r="F71" s="216"/>
       <c r="G71" s="142"/>
     </row>
     <row r="72" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="213"/>
+      <c r="A72" s="211"/>
       <c r="B72" s="147"/>
-      <c r="C72" s="218"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="213"/>
+      <c r="C72" s="213"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="211"/>
       <c r="F72" s="215"/>
       <c r="G72" s="142"/>
     </row>
     <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="214"/>
+      <c r="A73" s="212"/>
       <c r="B73" s="150"/>
-      <c r="C73" s="219"/>
-      <c r="D73" s="214"/>
-      <c r="E73" s="214"/>
+      <c r="C73" s="214"/>
+      <c r="D73" s="212"/>
+      <c r="E73" s="212"/>
       <c r="F73" s="216"/>
       <c r="G73" s="142"/>
     </row>
     <row r="74" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="213"/>
+      <c r="A74" s="211"/>
       <c r="B74" s="147"/>
-      <c r="C74" s="218"/>
-      <c r="D74" s="213"/>
-      <c r="E74" s="213"/>
+      <c r="C74" s="213"/>
+      <c r="D74" s="211"/>
+      <c r="E74" s="211"/>
       <c r="F74" s="215"/>
       <c r="G74" s="142"/>
     </row>
     <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="214"/>
+      <c r="A75" s="212"/>
       <c r="B75" s="150"/>
-      <c r="C75" s="219"/>
-      <c r="D75" s="214"/>
-      <c r="E75" s="214"/>
+      <c r="C75" s="214"/>
+      <c r="D75" s="212"/>
+      <c r="E75" s="212"/>
       <c r="F75" s="216"/>
       <c r="G75" s="142"/>
     </row>
     <row r="76" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="213"/>
+      <c r="A76" s="211"/>
       <c r="B76" s="147"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="213"/>
-      <c r="E76" s="213"/>
+      <c r="C76" s="213"/>
+      <c r="D76" s="211"/>
+      <c r="E76" s="211"/>
       <c r="F76" s="215"/>
       <c r="G76" s="142"/>
     </row>
     <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="214"/>
+      <c r="A77" s="212"/>
       <c r="B77" s="150"/>
-      <c r="C77" s="219"/>
-      <c r="D77" s="214"/>
-      <c r="E77" s="214"/>
+      <c r="C77" s="214"/>
+      <c r="D77" s="212"/>
+      <c r="E77" s="212"/>
       <c r="F77" s="216"/>
       <c r="G77" s="142"/>
     </row>
     <row r="78" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="213"/>
+      <c r="A78" s="211"/>
       <c r="B78" s="147"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="213"/>
-      <c r="E78" s="213"/>
+      <c r="C78" s="213"/>
+      <c r="D78" s="211"/>
+      <c r="E78" s="211"/>
       <c r="F78" s="215"/>
       <c r="G78" s="142"/>
     </row>
     <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="214"/>
+      <c r="A79" s="212"/>
       <c r="B79" s="150"/>
-      <c r="C79" s="219"/>
-      <c r="D79" s="214"/>
-      <c r="E79" s="214"/>
+      <c r="C79" s="214"/>
+      <c r="D79" s="212"/>
+      <c r="E79" s="212"/>
       <c r="F79" s="216"/>
       <c r="G79" s="142"/>
     </row>
     <row r="80" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="213"/>
+      <c r="A80" s="211"/>
       <c r="B80" s="147"/>
-      <c r="C80" s="218"/>
-      <c r="D80" s="213"/>
-      <c r="E80" s="213"/>
+      <c r="C80" s="213"/>
+      <c r="D80" s="211"/>
+      <c r="E80" s="211"/>
       <c r="F80" s="215"/>
       <c r="G80" s="142"/>
     </row>
     <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="214"/>
+      <c r="A81" s="212"/>
       <c r="B81" s="150"/>
-      <c r="C81" s="219"/>
-      <c r="D81" s="214"/>
-      <c r="E81" s="214"/>
+      <c r="C81" s="214"/>
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
       <c r="F81" s="216"/>
       <c r="G81" s="142"/>
     </row>
     <row r="82" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="213"/>
+      <c r="A82" s="211"/>
       <c r="B82" s="147"/>
-      <c r="C82" s="218"/>
-      <c r="D82" s="213"/>
-      <c r="E82" s="213"/>
+      <c r="C82" s="213"/>
+      <c r="D82" s="211"/>
+      <c r="E82" s="211"/>
       <c r="F82" s="215"/>
       <c r="G82" s="142"/>
     </row>
     <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="214"/>
+      <c r="A83" s="212"/>
       <c r="B83" s="150"/>
-      <c r="C83" s="219"/>
-      <c r="D83" s="214"/>
-      <c r="E83" s="214"/>
+      <c r="C83" s="214"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="212"/>
       <c r="F83" s="216"/>
       <c r="G83" s="142"/>
     </row>
     <row r="84" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="213"/>
+      <c r="A84" s="211"/>
       <c r="B84" s="147"/>
-      <c r="C84" s="218"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="213"/>
+      <c r="C84" s="213"/>
+      <c r="D84" s="211"/>
+      <c r="E84" s="211"/>
       <c r="F84" s="215"/>
       <c r="G84" s="142"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="214"/>
+      <c r="A85" s="212"/>
       <c r="B85" s="150"/>
-      <c r="C85" s="219"/>
-      <c r="D85" s="214"/>
-      <c r="E85" s="214"/>
+      <c r="C85" s="214"/>
+      <c r="D85" s="212"/>
+      <c r="E85" s="212"/>
       <c r="F85" s="216"/>
       <c r="G85" s="142"/>
     </row>
     <row r="86" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="213"/>
+      <c r="A86" s="211"/>
       <c r="B86" s="147"/>
-      <c r="C86" s="218"/>
-      <c r="D86" s="213"/>
-      <c r="E86" s="213"/>
+      <c r="C86" s="213"/>
+      <c r="D86" s="211"/>
+      <c r="E86" s="211"/>
       <c r="F86" s="215"/>
       <c r="G86" s="142"/>
     </row>
     <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="214"/>
+      <c r="A87" s="212"/>
       <c r="B87" s="150"/>
-      <c r="C87" s="219"/>
-      <c r="D87" s="214"/>
-      <c r="E87" s="214"/>
+      <c r="C87" s="214"/>
+      <c r="D87" s="212"/>
+      <c r="E87" s="212"/>
       <c r="F87" s="216"/>
       <c r="G87" s="142"/>
     </row>
     <row r="88" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="213"/>
+      <c r="A88" s="211"/>
       <c r="B88" s="147"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="213"/>
-      <c r="E88" s="213"/>
+      <c r="C88" s="213"/>
+      <c r="D88" s="211"/>
+      <c r="E88" s="211"/>
       <c r="F88" s="215"/>
       <c r="G88" s="142"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="214"/>
+      <c r="A89" s="212"/>
       <c r="B89" s="150"/>
-      <c r="C89" s="219"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="214"/>
+      <c r="C89" s="214"/>
+      <c r="D89" s="212"/>
+      <c r="E89" s="212"/>
       <c r="F89" s="216"/>
       <c r="G89" s="142"/>
     </row>
     <row r="90" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="213"/>
+      <c r="A90" s="211"/>
       <c r="B90" s="147"/>
-      <c r="C90" s="218"/>
-      <c r="D90" s="213"/>
-      <c r="E90" s="213"/>
+      <c r="C90" s="213"/>
+      <c r="D90" s="211"/>
+      <c r="E90" s="211"/>
       <c r="F90" s="215"/>
       <c r="G90" s="142"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="214"/>
+      <c r="A91" s="212"/>
       <c r="B91" s="150"/>
-      <c r="C91" s="219"/>
-      <c r="D91" s="214"/>
-      <c r="E91" s="214"/>
+      <c r="C91" s="214"/>
+      <c r="D91" s="212"/>
+      <c r="E91" s="212"/>
       <c r="F91" s="216"/>
       <c r="G91" s="142"/>
     </row>
     <row r="92" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="213"/>
+      <c r="A92" s="211"/>
       <c r="B92" s="147"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="213"/>
-      <c r="E92" s="213"/>
+      <c r="C92" s="213"/>
+      <c r="D92" s="211"/>
+      <c r="E92" s="211"/>
       <c r="F92" s="215"/>
       <c r="G92" s="142"/>
     </row>
     <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="214"/>
+      <c r="A93" s="212"/>
       <c r="B93" s="150"/>
-      <c r="C93" s="219"/>
-      <c r="D93" s="214"/>
-      <c r="E93" s="214"/>
+      <c r="C93" s="214"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="212"/>
       <c r="F93" s="216"/>
       <c r="G93" s="142"/>
     </row>
     <row r="94" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="213"/>
+      <c r="A94" s="211"/>
       <c r="B94" s="147"/>
-      <c r="C94" s="218"/>
-      <c r="D94" s="213"/>
-      <c r="E94" s="213"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="211"/>
+      <c r="E94" s="211"/>
       <c r="F94" s="215"/>
       <c r="G94" s="142"/>
     </row>
     <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="214"/>
+      <c r="A95" s="212"/>
       <c r="B95" s="150"/>
-      <c r="C95" s="219"/>
-      <c r="D95" s="214"/>
-      <c r="E95" s="214"/>
+      <c r="C95" s="214"/>
+      <c r="D95" s="212"/>
+      <c r="E95" s="212"/>
       <c r="F95" s="216"/>
       <c r="G95" s="142"/>
     </row>
     <row r="96" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="213"/>
+      <c r="A96" s="211"/>
       <c r="B96" s="147"/>
-      <c r="C96" s="218"/>
-      <c r="D96" s="213"/>
-      <c r="E96" s="213"/>
+      <c r="C96" s="213"/>
+      <c r="D96" s="211"/>
+      <c r="E96" s="211"/>
       <c r="F96" s="215"/>
       <c r="G96" s="142"/>
     </row>
     <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="214"/>
+      <c r="A97" s="212"/>
       <c r="B97" s="150"/>
-      <c r="C97" s="219"/>
-      <c r="D97" s="214"/>
-      <c r="E97" s="214"/>
+      <c r="C97" s="214"/>
+      <c r="D97" s="212"/>
+      <c r="E97" s="212"/>
       <c r="F97" s="216"/>
       <c r="G97" s="142"/>
     </row>
     <row r="98" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="213"/>
+      <c r="A98" s="211"/>
       <c r="B98" s="147"/>
-      <c r="C98" s="218"/>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
+      <c r="C98" s="213"/>
+      <c r="D98" s="211"/>
+      <c r="E98" s="211"/>
       <c r="F98" s="215"/>
       <c r="G98" s="142"/>
     </row>
     <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="214"/>
+      <c r="A99" s="212"/>
       <c r="B99" s="150"/>
-      <c r="C99" s="219"/>
-      <c r="D99" s="214"/>
-      <c r="E99" s="214"/>
+      <c r="C99" s="214"/>
+      <c r="D99" s="212"/>
+      <c r="E99" s="212"/>
       <c r="F99" s="216"/>
       <c r="G99" s="142"/>
     </row>
     <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="213"/>
+      <c r="A100" s="211"/>
       <c r="B100" s="147"/>
-      <c r="C100" s="218"/>
-      <c r="D100" s="213"/>
-      <c r="E100" s="213"/>
+      <c r="C100" s="213"/>
+      <c r="D100" s="211"/>
+      <c r="E100" s="211"/>
       <c r="F100" s="215"/>
       <c r="G100" s="142"/>
     </row>
     <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="214"/>
+      <c r="A101" s="212"/>
       <c r="B101" s="150"/>
-      <c r="C101" s="219"/>
-      <c r="D101" s="214"/>
-      <c r="E101" s="214"/>
+      <c r="C101" s="214"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="212"/>
       <c r="F101" s="216"/>
       <c r="G101" s="142"/>
     </row>
     <row r="102" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="213"/>
+      <c r="A102" s="211"/>
       <c r="B102" s="147"/>
-      <c r="C102" s="218"/>
-      <c r="D102" s="213"/>
-      <c r="E102" s="213"/>
+      <c r="C102" s="213"/>
+      <c r="D102" s="211"/>
+      <c r="E102" s="211"/>
       <c r="F102" s="215"/>
       <c r="G102" s="142"/>
     </row>
     <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="214"/>
+      <c r="A103" s="212"/>
       <c r="B103" s="150"/>
-      <c r="C103" s="219"/>
-      <c r="D103" s="214"/>
-      <c r="E103" s="214"/>
+      <c r="C103" s="214"/>
+      <c r="D103" s="212"/>
+      <c r="E103" s="212"/>
       <c r="F103" s="216"/>
       <c r="G103" s="142"/>
     </row>
     <row r="104" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="213"/>
+      <c r="A104" s="211"/>
       <c r="B104" s="147"/>
-      <c r="C104" s="218"/>
-      <c r="D104" s="213"/>
-      <c r="E104" s="213"/>
+      <c r="C104" s="213"/>
+      <c r="D104" s="211"/>
+      <c r="E104" s="211"/>
       <c r="F104" s="215"/>
       <c r="G104" s="142"/>
     </row>
     <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="214"/>
+      <c r="A105" s="212"/>
       <c r="B105" s="150"/>
-      <c r="C105" s="219"/>
-      <c r="D105" s="214"/>
-      <c r="E105" s="214"/>
+      <c r="C105" s="214"/>
+      <c r="D105" s="212"/>
+      <c r="E105" s="212"/>
       <c r="F105" s="216"/>
       <c r="G105" s="142"/>
     </row>
     <row r="106" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="213"/>
+      <c r="A106" s="211"/>
       <c r="B106" s="147"/>
-      <c r="C106" s="218"/>
-      <c r="D106" s="213"/>
-      <c r="E106" s="213"/>
+      <c r="C106" s="213"/>
+      <c r="D106" s="211"/>
+      <c r="E106" s="211"/>
       <c r="F106" s="215"/>
       <c r="G106" s="142"/>
     </row>
     <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="214"/>
+      <c r="A107" s="212"/>
       <c r="B107" s="150"/>
-      <c r="C107" s="219"/>
-      <c r="D107" s="214"/>
-      <c r="E107" s="214"/>
+      <c r="C107" s="214"/>
+      <c r="D107" s="212"/>
+      <c r="E107" s="212"/>
       <c r="F107" s="216"/>
       <c r="G107" s="142"/>
     </row>
     <row r="108" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="213"/>
+      <c r="A108" s="211"/>
       <c r="B108" s="147"/>
-      <c r="C108" s="218"/>
-      <c r="D108" s="213"/>
-      <c r="E108" s="213"/>
+      <c r="C108" s="213"/>
+      <c r="D108" s="211"/>
+      <c r="E108" s="211"/>
       <c r="F108" s="215"/>
       <c r="G108" s="142"/>
     </row>
     <row r="109" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="214"/>
+      <c r="A109" s="212"/>
       <c r="B109" s="150"/>
-      <c r="C109" s="219"/>
-      <c r="D109" s="214"/>
-      <c r="E109" s="214"/>
+      <c r="C109" s="214"/>
+      <c r="D109" s="212"/>
+      <c r="E109" s="212"/>
       <c r="F109" s="216"/>
       <c r="G109" s="142"/>
     </row>
     <row r="110" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="213"/>
+      <c r="A110" s="211"/>
       <c r="B110" s="147"/>
-      <c r="C110" s="218"/>
-      <c r="D110" s="213"/>
-      <c r="E110" s="213"/>
+      <c r="C110" s="213"/>
+      <c r="D110" s="211"/>
+      <c r="E110" s="211"/>
       <c r="F110" s="215"/>
       <c r="G110" s="142"/>
     </row>
     <row r="111" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="214"/>
+      <c r="A111" s="212"/>
       <c r="B111" s="150"/>
-      <c r="C111" s="219"/>
-      <c r="D111" s="214"/>
-      <c r="E111" s="214"/>
+      <c r="C111" s="214"/>
+      <c r="D111" s="212"/>
+      <c r="E111" s="212"/>
       <c r="F111" s="216"/>
       <c r="G111" s="142"/>
     </row>
     <row r="112" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="213"/>
+      <c r="A112" s="211"/>
       <c r="B112" s="147"/>
-      <c r="C112" s="218"/>
-      <c r="D112" s="213"/>
-      <c r="E112" s="213"/>
+      <c r="C112" s="213"/>
+      <c r="D112" s="211"/>
+      <c r="E112" s="211"/>
       <c r="F112" s="215"/>
       <c r="G112" s="142"/>
     </row>
     <row r="113" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="214"/>
+      <c r="A113" s="212"/>
       <c r="B113" s="150"/>
-      <c r="C113" s="219"/>
-      <c r="D113" s="214"/>
-      <c r="E113" s="214"/>
+      <c r="C113" s="214"/>
+      <c r="D113" s="212"/>
+      <c r="E113" s="212"/>
       <c r="F113" s="216"/>
       <c r="G113" s="142"/>
     </row>
     <row r="114" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="213"/>
+      <c r="A114" s="211"/>
       <c r="B114" s="147"/>
-      <c r="C114" s="218"/>
-      <c r="D114" s="213"/>
-      <c r="E114" s="213"/>
+      <c r="C114" s="213"/>
+      <c r="D114" s="211"/>
+      <c r="E114" s="211"/>
       <c r="F114" s="215"/>
       <c r="G114" s="142"/>
     </row>
     <row r="115" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="214"/>
+      <c r="A115" s="212"/>
       <c r="B115" s="150"/>
-      <c r="C115" s="219"/>
-      <c r="D115" s="214"/>
-      <c r="E115" s="214"/>
+      <c r="C115" s="214"/>
+      <c r="D115" s="212"/>
+      <c r="E115" s="212"/>
       <c r="F115" s="216"/>
       <c r="G115" s="142"/>
     </row>
     <row r="116" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="213"/>
+      <c r="A116" s="211"/>
       <c r="B116" s="147"/>
-      <c r="C116" s="218"/>
-      <c r="D116" s="213"/>
-      <c r="E116" s="213"/>
+      <c r="C116" s="213"/>
+      <c r="D116" s="211"/>
+      <c r="E116" s="211"/>
       <c r="F116" s="215"/>
       <c r="G116" s="142"/>
     </row>
     <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="214"/>
+      <c r="A117" s="212"/>
       <c r="B117" s="150"/>
-      <c r="C117" s="219"/>
-      <c r="D117" s="214"/>
-      <c r="E117" s="214"/>
+      <c r="C117" s="214"/>
+      <c r="D117" s="212"/>
+      <c r="E117" s="212"/>
       <c r="F117" s="216"/>
       <c r="G117" s="142"/>
     </row>
     <row r="118" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="213"/>
+      <c r="A118" s="211"/>
       <c r="B118" s="147"/>
-      <c r="C118" s="218"/>
-      <c r="D118" s="213"/>
-      <c r="E118" s="213"/>
+      <c r="C118" s="213"/>
+      <c r="D118" s="211"/>
+      <c r="E118" s="211"/>
       <c r="F118" s="215"/>
       <c r="G118" s="142"/>
     </row>
     <row r="119" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="214"/>
+      <c r="A119" s="212"/>
       <c r="B119" s="150"/>
-      <c r="C119" s="219"/>
-      <c r="D119" s="214"/>
-      <c r="E119" s="214"/>
+      <c r="C119" s="214"/>
+      <c r="D119" s="212"/>
+      <c r="E119" s="212"/>
       <c r="F119" s="216"/>
       <c r="G119" s="142"/>
     </row>
     <row r="120" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="213"/>
+      <c r="A120" s="211"/>
       <c r="B120" s="147"/>
-      <c r="C120" s="218"/>
-      <c r="D120" s="213"/>
-      <c r="E120" s="213"/>
+      <c r="C120" s="213"/>
+      <c r="D120" s="211"/>
+      <c r="E120" s="211"/>
       <c r="F120" s="215"/>
       <c r="G120" s="142"/>
     </row>
     <row r="121" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="214"/>
+      <c r="A121" s="212"/>
       <c r="B121" s="150"/>
-      <c r="C121" s="219"/>
-      <c r="D121" s="214"/>
-      <c r="E121" s="214"/>
+      <c r="C121" s="214"/>
+      <c r="D121" s="212"/>
+      <c r="E121" s="212"/>
       <c r="F121" s="216"/>
       <c r="G121" s="142"/>
     </row>
     <row r="122" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="213"/>
+      <c r="A122" s="211"/>
       <c r="B122" s="147"/>
-      <c r="C122" s="218"/>
-      <c r="D122" s="213"/>
-      <c r="E122" s="213"/>
+      <c r="C122" s="213"/>
+      <c r="D122" s="211"/>
+      <c r="E122" s="211"/>
       <c r="F122" s="215"/>
       <c r="G122" s="142"/>
     </row>
     <row r="123" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="214"/>
+      <c r="A123" s="212"/>
       <c r="B123" s="150"/>
-      <c r="C123" s="219"/>
-      <c r="D123" s="214"/>
-      <c r="E123" s="214"/>
+      <c r="C123" s="214"/>
+      <c r="D123" s="212"/>
+      <c r="E123" s="212"/>
       <c r="F123" s="216"/>
       <c r="G123" s="142"/>
     </row>
     <row r="124" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="213"/>
+      <c r="A124" s="211"/>
       <c r="B124" s="147"/>
-      <c r="C124" s="218"/>
-      <c r="D124" s="213"/>
-      <c r="E124" s="213"/>
+      <c r="C124" s="213"/>
+      <c r="D124" s="211"/>
+      <c r="E124" s="211"/>
       <c r="F124" s="215"/>
       <c r="G124" s="142"/>
     </row>
     <row r="125" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="214"/>
+      <c r="A125" s="212"/>
       <c r="B125" s="150"/>
-      <c r="C125" s="219"/>
-      <c r="D125" s="214"/>
-      <c r="E125" s="214"/>
+      <c r="C125" s="214"/>
+      <c r="D125" s="212"/>
+      <c r="E125" s="212"/>
       <c r="F125" s="216"/>
       <c r="G125" s="142"/>
     </row>
     <row r="126" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="213"/>
+      <c r="A126" s="211"/>
       <c r="B126" s="147"/>
-      <c r="C126" s="218"/>
-      <c r="D126" s="213"/>
-      <c r="E126" s="213"/>
+      <c r="C126" s="213"/>
+      <c r="D126" s="211"/>
+      <c r="E126" s="211"/>
       <c r="F126" s="215"/>
       <c r="G126" s="142"/>
     </row>
     <row r="127" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="214"/>
+      <c r="A127" s="212"/>
       <c r="B127" s="150"/>
-      <c r="C127" s="219"/>
-      <c r="D127" s="214"/>
-      <c r="E127" s="214"/>
+      <c r="C127" s="214"/>
+      <c r="D127" s="212"/>
+      <c r="E127" s="212"/>
       <c r="F127" s="216"/>
       <c r="G127" s="142"/>
     </row>
     <row r="128" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="213"/>
+      <c r="A128" s="211"/>
       <c r="B128" s="147"/>
-      <c r="C128" s="218"/>
-      <c r="D128" s="213"/>
-      <c r="E128" s="213"/>
+      <c r="C128" s="213"/>
+      <c r="D128" s="211"/>
+      <c r="E128" s="211"/>
       <c r="F128" s="215"/>
       <c r="G128" s="142"/>
     </row>
     <row r="129" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="214"/>
+      <c r="A129" s="212"/>
       <c r="B129" s="150"/>
-      <c r="C129" s="219"/>
-      <c r="D129" s="214"/>
-      <c r="E129" s="214"/>
+      <c r="C129" s="214"/>
+      <c r="D129" s="212"/>
+      <c r="E129" s="212"/>
       <c r="F129" s="216"/>
       <c r="G129" s="142"/>
     </row>
     <row r="130" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="213"/>
+      <c r="A130" s="211"/>
       <c r="B130" s="147"/>
-      <c r="C130" s="218"/>
-      <c r="D130" s="213"/>
-      <c r="E130" s="213"/>
+      <c r="C130" s="213"/>
+      <c r="D130" s="211"/>
+      <c r="E130" s="211"/>
       <c r="F130" s="215"/>
       <c r="G130" s="142"/>
     </row>
     <row r="131" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="214"/>
+      <c r="A131" s="212"/>
       <c r="B131" s="150"/>
-      <c r="C131" s="219"/>
-      <c r="D131" s="214"/>
-      <c r="E131" s="214"/>
+      <c r="C131" s="214"/>
+      <c r="D131" s="212"/>
+      <c r="E131" s="212"/>
       <c r="F131" s="216"/>
       <c r="G131" s="142"/>
     </row>
     <row r="132" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="213"/>
+      <c r="A132" s="211"/>
       <c r="B132" s="147"/>
-      <c r="C132" s="218"/>
-      <c r="D132" s="213"/>
-      <c r="E132" s="213"/>
+      <c r="C132" s="213"/>
+      <c r="D132" s="211"/>
+      <c r="E132" s="211"/>
       <c r="F132" s="215"/>
       <c r="G132" s="142"/>
     </row>
     <row r="133" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="214"/>
+      <c r="A133" s="212"/>
       <c r="B133" s="150"/>
-      <c r="C133" s="219"/>
-      <c r="D133" s="214"/>
-      <c r="E133" s="214"/>
+      <c r="C133" s="214"/>
+      <c r="D133" s="212"/>
+      <c r="E133" s="212"/>
       <c r="F133" s="216"/>
       <c r="G133" s="142"/>
     </row>
     <row r="134" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="213"/>
+      <c r="A134" s="211"/>
       <c r="B134" s="147"/>
-      <c r="C134" s="218"/>
-      <c r="D134" s="213"/>
-      <c r="E134" s="213"/>
+      <c r="C134" s="213"/>
+      <c r="D134" s="211"/>
+      <c r="E134" s="211"/>
       <c r="F134" s="215"/>
       <c r="G134" s="142"/>
     </row>
     <row r="135" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="214"/>
+      <c r="A135" s="212"/>
       <c r="B135" s="150"/>
-      <c r="C135" s="219"/>
-      <c r="D135" s="214"/>
-      <c r="E135" s="214"/>
+      <c r="C135" s="214"/>
+      <c r="D135" s="212"/>
+      <c r="E135" s="212"/>
       <c r="F135" s="216"/>
       <c r="G135" s="142"/>
     </row>
     <row r="136" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="213"/>
+      <c r="A136" s="211"/>
       <c r="B136" s="147"/>
-      <c r="C136" s="218"/>
-      <c r="D136" s="213"/>
-      <c r="E136" s="213"/>
+      <c r="C136" s="213"/>
+      <c r="D136" s="211"/>
+      <c r="E136" s="211"/>
       <c r="F136" s="215"/>
       <c r="G136" s="142"/>
     </row>
     <row r="137" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="214"/>
+      <c r="A137" s="212"/>
       <c r="B137" s="150"/>
-      <c r="C137" s="219"/>
-      <c r="D137" s="214"/>
-      <c r="E137" s="214"/>
+      <c r="C137" s="214"/>
+      <c r="D137" s="212"/>
+      <c r="E137" s="212"/>
       <c r="F137" s="216"/>
       <c r="G137" s="142"/>
     </row>
     <row r="138" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="213"/>
+      <c r="A138" s="211"/>
       <c r="B138" s="147"/>
-      <c r="C138" s="218"/>
-      <c r="D138" s="213"/>
-      <c r="E138" s="213"/>
+      <c r="C138" s="213"/>
+      <c r="D138" s="211"/>
+      <c r="E138" s="211"/>
       <c r="F138" s="215"/>
       <c r="G138" s="142"/>
     </row>
     <row r="139" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="214"/>
+      <c r="A139" s="212"/>
       <c r="B139" s="150"/>
-      <c r="C139" s="219"/>
-      <c r="D139" s="214"/>
-      <c r="E139" s="214"/>
+      <c r="C139" s="214"/>
+      <c r="D139" s="212"/>
+      <c r="E139" s="212"/>
       <c r="F139" s="216"/>
       <c r="G139" s="142"/>
     </row>
     <row r="140" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="213"/>
+      <c r="A140" s="211"/>
       <c r="B140" s="147"/>
-      <c r="C140" s="218"/>
-      <c r="D140" s="213"/>
-      <c r="E140" s="213"/>
+      <c r="C140" s="213"/>
+      <c r="D140" s="211"/>
+      <c r="E140" s="211"/>
       <c r="F140" s="215"/>
       <c r="G140" s="142"/>
     </row>
     <row r="141" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="214"/>
+      <c r="A141" s="212"/>
       <c r="B141" s="150"/>
-      <c r="C141" s="219"/>
-      <c r="D141" s="214"/>
-      <c r="E141" s="214"/>
+      <c r="C141" s="214"/>
+      <c r="D141" s="212"/>
+      <c r="E141" s="212"/>
       <c r="F141" s="216"/>
       <c r="G141" s="142"/>
     </row>
     <row r="142" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="213"/>
+      <c r="A142" s="211"/>
       <c r="B142" s="147"/>
-      <c r="C142" s="218"/>
-      <c r="D142" s="213"/>
-      <c r="E142" s="213"/>
+      <c r="C142" s="213"/>
+      <c r="D142" s="211"/>
+      <c r="E142" s="211"/>
       <c r="F142" s="215"/>
       <c r="G142" s="142"/>
     </row>
     <row r="143" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="214"/>
+      <c r="A143" s="212"/>
       <c r="B143" s="150"/>
-      <c r="C143" s="219"/>
-      <c r="D143" s="214"/>
-      <c r="E143" s="214"/>
+      <c r="C143" s="214"/>
+      <c r="D143" s="212"/>
+      <c r="E143" s="212"/>
       <c r="F143" s="216"/>
       <c r="G143" s="142"/>
     </row>
     <row r="144" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="213"/>
+      <c r="A144" s="211"/>
       <c r="B144" s="147"/>
-      <c r="C144" s="218"/>
-      <c r="D144" s="213"/>
-      <c r="E144" s="213"/>
+      <c r="C144" s="213"/>
+      <c r="D144" s="211"/>
+      <c r="E144" s="211"/>
       <c r="F144" s="215"/>
       <c r="G144" s="142"/>
     </row>
     <row r="145" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="214"/>
+      <c r="A145" s="212"/>
       <c r="B145" s="150"/>
-      <c r="C145" s="219"/>
-      <c r="D145" s="214"/>
-      <c r="E145" s="214"/>
+      <c r="C145" s="214"/>
+      <c r="D145" s="212"/>
+      <c r="E145" s="212"/>
       <c r="F145" s="216"/>
       <c r="G145" s="142"/>
     </row>
     <row r="146" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="213"/>
+      <c r="A146" s="211"/>
       <c r="B146" s="147"/>
-      <c r="C146" s="218"/>
-      <c r="D146" s="213"/>
-      <c r="E146" s="213"/>
+      <c r="C146" s="213"/>
+      <c r="D146" s="211"/>
+      <c r="E146" s="211"/>
       <c r="F146" s="215"/>
       <c r="G146" s="142"/>
     </row>
     <row r="147" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="214"/>
+      <c r="A147" s="212"/>
       <c r="B147" s="150"/>
-      <c r="C147" s="219"/>
-      <c r="D147" s="214"/>
-      <c r="E147" s="214"/>
+      <c r="C147" s="214"/>
+      <c r="D147" s="212"/>
+      <c r="E147" s="212"/>
       <c r="F147" s="216"/>
       <c r="G147" s="142"/>
     </row>
     <row r="148" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="213"/>
+      <c r="A148" s="211"/>
       <c r="B148" s="147"/>
-      <c r="C148" s="218"/>
-      <c r="D148" s="213"/>
-      <c r="E148" s="213"/>
+      <c r="C148" s="213"/>
+      <c r="D148" s="211"/>
+      <c r="E148" s="211"/>
       <c r="F148" s="215"/>
       <c r="G148" s="142"/>
     </row>
     <row r="149" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="214"/>
+      <c r="A149" s="212"/>
       <c r="B149" s="150"/>
-      <c r="C149" s="219"/>
-      <c r="D149" s="214"/>
-      <c r="E149" s="214"/>
+      <c r="C149" s="214"/>
+      <c r="D149" s="212"/>
+      <c r="E149" s="212"/>
       <c r="F149" s="216"/>
       <c r="G149" s="142"/>
     </row>
     <row r="150" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="213"/>
+      <c r="A150" s="211"/>
       <c r="B150" s="147"/>
-      <c r="C150" s="218"/>
-      <c r="D150" s="213"/>
-      <c r="E150" s="213"/>
+      <c r="C150" s="213"/>
+      <c r="D150" s="211"/>
+      <c r="E150" s="211"/>
       <c r="F150" s="215"/>
       <c r="G150" s="142"/>
     </row>
     <row r="151" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="214"/>
+      <c r="A151" s="212"/>
       <c r="B151" s="150"/>
-      <c r="C151" s="219"/>
-      <c r="D151" s="214"/>
-      <c r="E151" s="214"/>
+      <c r="C151" s="214"/>
+      <c r="D151" s="212"/>
+      <c r="E151" s="212"/>
       <c r="F151" s="216"/>
       <c r="G151" s="142"/>
     </row>
     <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="213"/>
+      <c r="A152" s="211"/>
       <c r="B152" s="147"/>
-      <c r="C152" s="218"/>
-      <c r="D152" s="213"/>
-      <c r="E152" s="213"/>
+      <c r="C152" s="213"/>
+      <c r="D152" s="211"/>
+      <c r="E152" s="211"/>
       <c r="F152" s="215"/>
       <c r="G152" s="142"/>
     </row>
     <row r="153" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="214"/>
+      <c r="A153" s="212"/>
       <c r="B153" s="150"/>
-      <c r="C153" s="219"/>
-      <c r="D153" s="214"/>
-      <c r="E153" s="214"/>
+      <c r="C153" s="214"/>
+      <c r="D153" s="212"/>
+      <c r="E153" s="212"/>
       <c r="F153" s="216"/>
       <c r="G153" s="142"/>
     </row>
     <row r="154" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="213"/>
+      <c r="A154" s="211"/>
       <c r="B154" s="147"/>
-      <c r="C154" s="218"/>
-      <c r="D154" s="213"/>
-      <c r="E154" s="213"/>
+      <c r="C154" s="213"/>
+      <c r="D154" s="211"/>
+      <c r="E154" s="211"/>
       <c r="F154" s="215"/>
       <c r="G154" s="142"/>
     </row>
     <row r="155" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="214"/>
+      <c r="A155" s="212"/>
       <c r="B155" s="150"/>
-      <c r="C155" s="219"/>
-      <c r="D155" s="214"/>
-      <c r="E155" s="214"/>
+      <c r="C155" s="214"/>
+      <c r="D155" s="212"/>
+      <c r="E155" s="212"/>
       <c r="F155" s="216"/>
       <c r="G155" s="142"/>
     </row>
     <row r="156" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="213"/>
+      <c r="A156" s="211"/>
       <c r="B156" s="147"/>
-      <c r="C156" s="218"/>
-      <c r="D156" s="213"/>
-      <c r="E156" s="213"/>
+      <c r="C156" s="213"/>
+      <c r="D156" s="211"/>
+      <c r="E156" s="211"/>
       <c r="F156" s="215"/>
       <c r="G156" s="142"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="214"/>
+      <c r="A157" s="212"/>
       <c r="B157" s="150"/>
-      <c r="C157" s="219"/>
-      <c r="D157" s="214"/>
-      <c r="E157" s="214"/>
+      <c r="C157" s="214"/>
+      <c r="D157" s="212"/>
+      <c r="E157" s="212"/>
       <c r="F157" s="216"/>
       <c r="G157" s="142"/>
     </row>
     <row r="158" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="213"/>
+      <c r="A158" s="211"/>
       <c r="B158" s="147"/>
-      <c r="C158" s="218"/>
-      <c r="D158" s="213"/>
-      <c r="E158" s="213"/>
+      <c r="C158" s="213"/>
+      <c r="D158" s="211"/>
+      <c r="E158" s="211"/>
       <c r="F158" s="215"/>
       <c r="G158" s="142"/>
     </row>
     <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="214"/>
+      <c r="A159" s="212"/>
       <c r="B159" s="150"/>
-      <c r="C159" s="219"/>
-      <c r="D159" s="214"/>
-      <c r="E159" s="214"/>
+      <c r="C159" s="214"/>
+      <c r="D159" s="212"/>
+      <c r="E159" s="212"/>
       <c r="F159" s="216"/>
       <c r="G159" s="142"/>
     </row>
     <row r="160" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="213"/>
+      <c r="A160" s="211"/>
       <c r="B160" s="147"/>
-      <c r="C160" s="218"/>
-      <c r="D160" s="213"/>
-      <c r="E160" s="213"/>
+      <c r="C160" s="213"/>
+      <c r="D160" s="211"/>
+      <c r="E160" s="211"/>
       <c r="F160" s="215"/>
       <c r="G160" s="142"/>
     </row>
     <row r="161" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="214"/>
+      <c r="A161" s="212"/>
       <c r="B161" s="150"/>
-      <c r="C161" s="219"/>
-      <c r="D161" s="214"/>
-      <c r="E161" s="214"/>
+      <c r="C161" s="214"/>
+      <c r="D161" s="212"/>
+      <c r="E161" s="212"/>
       <c r="F161" s="216"/>
       <c r="G161" s="142"/>
     </row>
     <row r="162" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="213"/>
+      <c r="A162" s="211"/>
       <c r="B162" s="147"/>
-      <c r="C162" s="218"/>
-      <c r="D162" s="213"/>
-      <c r="E162" s="213"/>
+      <c r="C162" s="213"/>
+      <c r="D162" s="211"/>
+      <c r="E162" s="211"/>
       <c r="F162" s="215"/>
       <c r="G162" s="142"/>
     </row>
     <row r="163" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="214"/>
+      <c r="A163" s="212"/>
       <c r="B163" s="150"/>
-      <c r="C163" s="219"/>
-      <c r="D163" s="214"/>
-      <c r="E163" s="214"/>
+      <c r="C163" s="214"/>
+      <c r="D163" s="212"/>
+      <c r="E163" s="212"/>
       <c r="F163" s="216"/>
       <c r="G163" s="142"/>
     </row>
     <row r="164" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="213"/>
+      <c r="A164" s="211"/>
       <c r="B164" s="147"/>
-      <c r="C164" s="218"/>
-      <c r="D164" s="213"/>
-      <c r="E164" s="213"/>
+      <c r="C164" s="213"/>
+      <c r="D164" s="211"/>
+      <c r="E164" s="211"/>
       <c r="F164" s="215"/>
       <c r="G164" s="142"/>
     </row>
     <row r="165" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="214"/>
+      <c r="A165" s="212"/>
       <c r="B165" s="150"/>
-      <c r="C165" s="219"/>
-      <c r="D165" s="214"/>
-      <c r="E165" s="214"/>
+      <c r="C165" s="214"/>
+      <c r="D165" s="212"/>
+      <c r="E165" s="212"/>
       <c r="F165" s="216"/>
       <c r="G165" s="142"/>
     </row>
     <row r="166" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="213"/>
+      <c r="A166" s="211"/>
       <c r="B166" s="147"/>
-      <c r="C166" s="218"/>
-      <c r="D166" s="213"/>
-      <c r="E166" s="213"/>
+      <c r="C166" s="213"/>
+      <c r="D166" s="211"/>
+      <c r="E166" s="211"/>
       <c r="F166" s="215"/>
       <c r="G166" s="142"/>
     </row>
     <row r="167" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="214"/>
+      <c r="A167" s="212"/>
       <c r="B167" s="150"/>
-      <c r="C167" s="219"/>
-      <c r="D167" s="214"/>
-      <c r="E167" s="214"/>
+      <c r="C167" s="214"/>
+      <c r="D167" s="212"/>
+      <c r="E167" s="212"/>
       <c r="F167" s="216"/>
       <c r="G167" s="142"/>
     </row>
     <row r="168" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="213"/>
+      <c r="A168" s="211"/>
       <c r="B168" s="147"/>
-      <c r="C168" s="218"/>
-      <c r="D168" s="213"/>
-      <c r="E168" s="213"/>
+      <c r="C168" s="213"/>
+      <c r="D168" s="211"/>
+      <c r="E168" s="211"/>
       <c r="F168" s="215"/>
       <c r="G168" s="142"/>
     </row>
     <row r="169" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="214"/>
+      <c r="A169" s="212"/>
       <c r="B169" s="150"/>
-      <c r="C169" s="219"/>
-      <c r="D169" s="214"/>
-      <c r="E169" s="214"/>
+      <c r="C169" s="214"/>
+      <c r="D169" s="212"/>
+      <c r="E169" s="212"/>
       <c r="F169" s="216"/>
       <c r="G169" s="142"/>
     </row>
     <row r="170" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="213"/>
+      <c r="A170" s="211"/>
       <c r="B170" s="147"/>
-      <c r="C170" s="218"/>
-      <c r="D170" s="213"/>
-      <c r="E170" s="213"/>
+      <c r="C170" s="213"/>
+      <c r="D170" s="211"/>
+      <c r="E170" s="211"/>
       <c r="F170" s="215"/>
       <c r="G170" s="142"/>
     </row>
     <row r="171" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="214"/>
+      <c r="A171" s="212"/>
       <c r="B171" s="150"/>
-      <c r="C171" s="219"/>
-      <c r="D171" s="214"/>
-      <c r="E171" s="214"/>
+      <c r="C171" s="214"/>
+      <c r="D171" s="212"/>
+      <c r="E171" s="212"/>
       <c r="F171" s="216"/>
       <c r="G171" s="142"/>
     </row>
     <row r="172" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="213"/>
+      <c r="A172" s="211"/>
       <c r="B172" s="147"/>
-      <c r="C172" s="218"/>
-      <c r="D172" s="213"/>
-      <c r="E172" s="213"/>
+      <c r="C172" s="213"/>
+      <c r="D172" s="211"/>
+      <c r="E172" s="211"/>
       <c r="F172" s="215"/>
       <c r="G172" s="142"/>
     </row>
     <row r="173" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="214"/>
+      <c r="A173" s="212"/>
       <c r="B173" s="150"/>
-      <c r="C173" s="219"/>
-      <c r="D173" s="214"/>
-      <c r="E173" s="214"/>
+      <c r="C173" s="214"/>
+      <c r="D173" s="212"/>
+      <c r="E173" s="212"/>
       <c r="F173" s="216"/>
       <c r="G173" s="142"/>
     </row>
     <row r="174" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="213"/>
+      <c r="A174" s="211"/>
       <c r="B174" s="147"/>
-      <c r="C174" s="218"/>
-      <c r="D174" s="213"/>
-      <c r="E174" s="213"/>
+      <c r="C174" s="213"/>
+      <c r="D174" s="211"/>
+      <c r="E174" s="211"/>
       <c r="F174" s="215"/>
       <c r="G174" s="142"/>
     </row>
     <row r="175" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="214"/>
+      <c r="A175" s="212"/>
       <c r="B175" s="150"/>
-      <c r="C175" s="219"/>
-      <c r="D175" s="214"/>
-      <c r="E175" s="214"/>
+      <c r="C175" s="214"/>
+      <c r="D175" s="212"/>
+      <c r="E175" s="212"/>
       <c r="F175" s="216"/>
       <c r="G175" s="142"/>
     </row>
     <row r="176" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="213"/>
+      <c r="A176" s="211"/>
       <c r="B176" s="147"/>
-      <c r="C176" s="218"/>
-      <c r="D176" s="213"/>
-      <c r="E176" s="213"/>
+      <c r="C176" s="213"/>
+      <c r="D176" s="211"/>
+      <c r="E176" s="211"/>
       <c r="F176" s="215"/>
       <c r="G176" s="142"/>
     </row>
     <row r="177" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="214"/>
+      <c r="A177" s="212"/>
       <c r="B177" s="150"/>
-      <c r="C177" s="219"/>
-      <c r="D177" s="214"/>
-      <c r="E177" s="214"/>
+      <c r="C177" s="214"/>
+      <c r="D177" s="212"/>
+      <c r="E177" s="212"/>
       <c r="F177" s="216"/>
       <c r="G177" s="142"/>
     </row>
     <row r="178" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="213"/>
+      <c r="A178" s="211"/>
       <c r="B178" s="147"/>
-      <c r="C178" s="218"/>
-      <c r="D178" s="213"/>
-      <c r="E178" s="213"/>
+      <c r="C178" s="213"/>
+      <c r="D178" s="211"/>
+      <c r="E178" s="211"/>
       <c r="F178" s="215"/>
       <c r="G178" s="142"/>
     </row>
     <row r="179" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="214"/>
+      <c r="A179" s="212"/>
       <c r="B179" s="150"/>
-      <c r="C179" s="219"/>
-      <c r="D179" s="214"/>
-      <c r="E179" s="214"/>
+      <c r="C179" s="214"/>
+      <c r="D179" s="212"/>
+      <c r="E179" s="212"/>
       <c r="F179" s="216"/>
       <c r="G179" s="142"/>
     </row>
     <row r="180" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="213"/>
+      <c r="A180" s="211"/>
       <c r="B180" s="147"/>
-      <c r="C180" s="218"/>
-      <c r="D180" s="213"/>
-      <c r="E180" s="213"/>
+      <c r="C180" s="213"/>
+      <c r="D180" s="211"/>
+      <c r="E180" s="211"/>
       <c r="F180" s="215"/>
       <c r="G180" s="142"/>
     </row>
     <row r="181" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="214"/>
+      <c r="A181" s="212"/>
       <c r="B181" s="150"/>
-      <c r="C181" s="219"/>
-      <c r="D181" s="214"/>
-      <c r="E181" s="214"/>
+      <c r="C181" s="214"/>
+      <c r="D181" s="212"/>
+      <c r="E181" s="212"/>
       <c r="F181" s="216"/>
       <c r="G181" s="142"/>
     </row>
     <row r="182" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="213"/>
+      <c r="A182" s="211"/>
       <c r="B182" s="147"/>
-      <c r="C182" s="218"/>
-      <c r="D182" s="213"/>
-      <c r="E182" s="213"/>
+      <c r="C182" s="213"/>
+      <c r="D182" s="211"/>
+      <c r="E182" s="211"/>
       <c r="F182" s="215"/>
       <c r="G182" s="142"/>
     </row>
     <row r="183" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="214"/>
+      <c r="A183" s="212"/>
       <c r="B183" s="150"/>
-      <c r="C183" s="219"/>
-      <c r="D183" s="214"/>
-      <c r="E183" s="214"/>
+      <c r="C183" s="214"/>
+      <c r="D183" s="212"/>
+      <c r="E183" s="212"/>
       <c r="F183" s="216"/>
       <c r="G183" s="142"/>
     </row>
     <row r="184" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="213"/>
+      <c r="A184" s="211"/>
       <c r="B184" s="147"/>
-      <c r="C184" s="218"/>
-      <c r="D184" s="213"/>
-      <c r="E184" s="213"/>
+      <c r="C184" s="213"/>
+      <c r="D184" s="211"/>
+      <c r="E184" s="211"/>
       <c r="F184" s="215"/>
       <c r="G184" s="142"/>
     </row>
     <row r="185" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="214"/>
+      <c r="A185" s="212"/>
       <c r="B185" s="150"/>
-      <c r="C185" s="219"/>
-      <c r="D185" s="214"/>
-      <c r="E185" s="214"/>
+      <c r="C185" s="214"/>
+      <c r="D185" s="212"/>
+      <c r="E185" s="212"/>
       <c r="F185" s="216"/>
       <c r="G185" s="142"/>
     </row>
     <row r="186" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="213"/>
+      <c r="A186" s="211"/>
       <c r="B186" s="147"/>
-      <c r="C186" s="218"/>
-      <c r="D186" s="213"/>
-      <c r="E186" s="213"/>
+      <c r="C186" s="213"/>
+      <c r="D186" s="211"/>
+      <c r="E186" s="211"/>
       <c r="F186" s="215"/>
       <c r="G186" s="142"/>
     </row>
     <row r="187" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="214"/>
+      <c r="A187" s="212"/>
       <c r="B187" s="150"/>
-      <c r="C187" s="219"/>
-      <c r="D187" s="214"/>
-      <c r="E187" s="214"/>
+      <c r="C187" s="214"/>
+      <c r="D187" s="212"/>
+      <c r="E187" s="212"/>
       <c r="F187" s="216"/>
       <c r="G187" s="142"/>
     </row>
     <row r="188" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="213"/>
+      <c r="A188" s="211"/>
       <c r="B188" s="147"/>
-      <c r="C188" s="218"/>
-      <c r="D188" s="213"/>
-      <c r="E188" s="213"/>
+      <c r="C188" s="213"/>
+      <c r="D188" s="211"/>
+      <c r="E188" s="211"/>
       <c r="F188" s="215"/>
       <c r="G188" s="142"/>
     </row>
     <row r="189" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="214"/>
+      <c r="A189" s="212"/>
       <c r="B189" s="150"/>
-      <c r="C189" s="219"/>
-      <c r="D189" s="214"/>
-      <c r="E189" s="214"/>
+      <c r="C189" s="214"/>
+      <c r="D189" s="212"/>
+      <c r="E189" s="212"/>
       <c r="F189" s="216"/>
       <c r="G189" s="142"/>
     </row>
     <row r="190" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="213"/>
+      <c r="A190" s="211"/>
       <c r="B190" s="147"/>
-      <c r="C190" s="218"/>
-      <c r="D190" s="213"/>
-      <c r="E190" s="213"/>
+      <c r="C190" s="213"/>
+      <c r="D190" s="211"/>
+      <c r="E190" s="211"/>
       <c r="F190" s="215"/>
       <c r="G190" s="142"/>
     </row>
     <row r="191" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="214"/>
+      <c r="A191" s="212"/>
       <c r="B191" s="150"/>
-      <c r="C191" s="219"/>
-      <c r="D191" s="214"/>
-      <c r="E191" s="214"/>
+      <c r="C191" s="214"/>
+      <c r="D191" s="212"/>
+      <c r="E191" s="212"/>
       <c r="F191" s="216"/>
       <c r="G191" s="142"/>
     </row>
     <row r="192" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="213"/>
+      <c r="A192" s="211"/>
       <c r="B192" s="147"/>
-      <c r="C192" s="218"/>
-      <c r="D192" s="213"/>
-      <c r="E192" s="213"/>
+      <c r="C192" s="213"/>
+      <c r="D192" s="211"/>
+      <c r="E192" s="211"/>
       <c r="F192" s="215"/>
       <c r="G192" s="142"/>
     </row>
     <row r="193" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="214"/>
+      <c r="A193" s="212"/>
       <c r="B193" s="150"/>
-      <c r="C193" s="219"/>
-      <c r="D193" s="214"/>
-      <c r="E193" s="214"/>
+      <c r="C193" s="214"/>
+      <c r="D193" s="212"/>
+      <c r="E193" s="212"/>
       <c r="F193" s="216"/>
       <c r="G193" s="142"/>
     </row>
     <row r="194" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="213"/>
+      <c r="A194" s="211"/>
       <c r="B194" s="147"/>
-      <c r="C194" s="218"/>
-      <c r="D194" s="213"/>
-      <c r="E194" s="213"/>
+      <c r="C194" s="213"/>
+      <c r="D194" s="211"/>
+      <c r="E194" s="211"/>
       <c r="F194" s="215"/>
       <c r="G194" s="142"/>
     </row>
     <row r="195" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="214"/>
+      <c r="A195" s="212"/>
       <c r="B195" s="150"/>
-      <c r="C195" s="219"/>
-      <c r="D195" s="214"/>
-      <c r="E195" s="214"/>
+      <c r="C195" s="214"/>
+      <c r="D195" s="212"/>
+      <c r="E195" s="212"/>
       <c r="F195" s="216"/>
       <c r="G195" s="142"/>
     </row>
     <row r="196" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="213"/>
+      <c r="A196" s="211"/>
       <c r="B196" s="147"/>
-      <c r="C196" s="218"/>
-      <c r="D196" s="213"/>
-      <c r="E196" s="213"/>
+      <c r="C196" s="213"/>
+      <c r="D196" s="211"/>
+      <c r="E196" s="211"/>
       <c r="F196" s="215"/>
       <c r="G196" s="142"/>
     </row>
     <row r="197" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="214"/>
+      <c r="A197" s="212"/>
       <c r="B197" s="150"/>
-      <c r="C197" s="219"/>
-      <c r="D197" s="214"/>
-      <c r="E197" s="214"/>
+      <c r="C197" s="214"/>
+      <c r="D197" s="212"/>
+      <c r="E197" s="212"/>
       <c r="F197" s="216"/>
       <c r="G197" s="142"/>
     </row>
     <row r="198" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="213"/>
+      <c r="A198" s="211"/>
       <c r="B198" s="147"/>
-      <c r="C198" s="218"/>
-      <c r="D198" s="213"/>
-      <c r="E198" s="213"/>
+      <c r="C198" s="213"/>
+      <c r="D198" s="211"/>
+      <c r="E198" s="211"/>
       <c r="F198" s="215"/>
       <c r="G198" s="142"/>
     </row>
     <row r="199" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="214"/>
+      <c r="A199" s="212"/>
       <c r="B199" s="150"/>
-      <c r="C199" s="219"/>
-      <c r="D199" s="214"/>
-      <c r="E199" s="214"/>
+      <c r="C199" s="214"/>
+      <c r="D199" s="212"/>
+      <c r="E199" s="212"/>
       <c r="F199" s="216"/>
       <c r="G199" s="142"/>
     </row>
     <row r="200" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="213"/>
+      <c r="A200" s="211"/>
       <c r="B200" s="147"/>
-      <c r="C200" s="218"/>
-      <c r="D200" s="213"/>
-      <c r="E200" s="213"/>
+      <c r="C200" s="213"/>
+      <c r="D200" s="211"/>
+      <c r="E200" s="211"/>
       <c r="F200" s="215"/>
       <c r="G200" s="142"/>
     </row>
     <row r="201" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="214"/>
+      <c r="A201" s="212"/>
       <c r="B201" s="150"/>
-      <c r="C201" s="219"/>
-      <c r="D201" s="214"/>
-      <c r="E201" s="214"/>
+      <c r="C201" s="214"/>
+      <c r="D201" s="212"/>
+      <c r="E201" s="212"/>
       <c r="F201" s="216"/>
       <c r="G201" s="142"/>
     </row>
     <row r="202" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="213"/>
+      <c r="A202" s="211"/>
       <c r="B202" s="147"/>
-      <c r="C202" s="218"/>
-      <c r="D202" s="213"/>
-      <c r="E202" s="213"/>
+      <c r="C202" s="213"/>
+      <c r="D202" s="211"/>
+      <c r="E202" s="211"/>
       <c r="F202" s="215"/>
       <c r="G202" s="142"/>
     </row>
     <row r="203" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="214"/>
+      <c r="A203" s="212"/>
       <c r="B203" s="150"/>
-      <c r="C203" s="219"/>
-      <c r="D203" s="214"/>
-      <c r="E203" s="214"/>
+      <c r="C203" s="214"/>
+      <c r="D203" s="212"/>
+      <c r="E203" s="212"/>
       <c r="F203" s="216"/>
       <c r="G203" s="142"/>
     </row>
     <row r="204" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="213"/>
+      <c r="A204" s="211"/>
       <c r="B204" s="147"/>
-      <c r="C204" s="218"/>
-      <c r="D204" s="213"/>
-      <c r="E204" s="213"/>
+      <c r="C204" s="213"/>
+      <c r="D204" s="211"/>
+      <c r="E204" s="211"/>
       <c r="F204" s="215"/>
       <c r="G204" s="142"/>
     </row>
     <row r="205" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="214"/>
+      <c r="A205" s="212"/>
       <c r="B205" s="150"/>
-      <c r="C205" s="219"/>
-      <c r="D205" s="214"/>
-      <c r="E205" s="214"/>
+      <c r="C205" s="214"/>
+      <c r="D205" s="212"/>
+      <c r="E205" s="212"/>
       <c r="F205" s="216"/>
       <c r="G205" s="142"/>
     </row>
     <row r="206" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="213"/>
+      <c r="A206" s="211"/>
       <c r="B206" s="147"/>
-      <c r="C206" s="218"/>
-      <c r="D206" s="213"/>
-      <c r="E206" s="213"/>
+      <c r="C206" s="213"/>
+      <c r="D206" s="211"/>
+      <c r="E206" s="211"/>
       <c r="F206" s="215"/>
       <c r="G206" s="142"/>
     </row>
     <row r="207" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="214"/>
+      <c r="A207" s="212"/>
       <c r="B207" s="150"/>
-      <c r="C207" s="219"/>
-      <c r="D207" s="214"/>
-      <c r="E207" s="214"/>
+      <c r="C207" s="214"/>
+      <c r="D207" s="212"/>
+      <c r="E207" s="212"/>
       <c r="F207" s="216"/>
       <c r="G207" s="142"/>
     </row>
     <row r="208" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="213"/>
+      <c r="A208" s="211"/>
       <c r="B208" s="147"/>
-      <c r="C208" s="218"/>
-      <c r="D208" s="213"/>
-      <c r="E208" s="213"/>
+      <c r="C208" s="213"/>
+      <c r="D208" s="211"/>
+      <c r="E208" s="211"/>
       <c r="F208" s="215"/>
       <c r="G208" s="142"/>
     </row>
     <row r="209" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="214"/>
+      <c r="A209" s="212"/>
       <c r="B209" s="150"/>
-      <c r="C209" s="219"/>
-      <c r="D209" s="214"/>
-      <c r="E209" s="214"/>
+      <c r="C209" s="214"/>
+      <c r="D209" s="212"/>
+      <c r="E209" s="212"/>
       <c r="F209" s="216"/>
       <c r="G209" s="142"/>
     </row>
     <row r="210" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="213"/>
+      <c r="A210" s="211"/>
       <c r="B210" s="147"/>
-      <c r="C210" s="218"/>
-      <c r="D210" s="213"/>
-      <c r="E210" s="213"/>
+      <c r="C210" s="213"/>
+      <c r="D210" s="211"/>
+      <c r="E210" s="211"/>
       <c r="F210" s="215"/>
       <c r="G210" s="142"/>
     </row>
     <row r="211" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="214"/>
+      <c r="A211" s="212"/>
       <c r="B211" s="150"/>
-      <c r="C211" s="219"/>
-      <c r="D211" s="214"/>
-      <c r="E211" s="214"/>
+      <c r="C211" s="214"/>
+      <c r="D211" s="212"/>
+      <c r="E211" s="212"/>
       <c r="F211" s="216"/>
       <c r="G211" s="142"/>
     </row>
     <row r="212" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="213"/>
+      <c r="A212" s="211"/>
       <c r="B212" s="147"/>
-      <c r="C212" s="218"/>
-      <c r="D212" s="213"/>
-      <c r="E212" s="213"/>
+      <c r="C212" s="213"/>
+      <c r="D212" s="211"/>
+      <c r="E212" s="211"/>
       <c r="F212" s="215"/>
       <c r="G212" s="142"/>
     </row>
     <row r="213" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="214"/>
+      <c r="A213" s="212"/>
       <c r="B213" s="150"/>
-      <c r="C213" s="219"/>
-      <c r="D213" s="214"/>
-      <c r="E213" s="214"/>
+      <c r="C213" s="214"/>
+      <c r="D213" s="212"/>
+      <c r="E213" s="212"/>
       <c r="F213" s="216"/>
       <c r="G213" s="142"/>
     </row>
     <row r="214" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="213"/>
+      <c r="A214" s="211"/>
       <c r="B214" s="147"/>
-      <c r="C214" s="218"/>
-      <c r="D214" s="213"/>
-      <c r="E214" s="213"/>
+      <c r="C214" s="213"/>
+      <c r="D214" s="211"/>
+      <c r="E214" s="211"/>
       <c r="F214" s="215"/>
       <c r="G214" s="142"/>
     </row>
     <row r="215" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="214"/>
+      <c r="A215" s="212"/>
       <c r="B215" s="150"/>
-      <c r="C215" s="219"/>
-      <c r="D215" s="214"/>
-      <c r="E215" s="214"/>
+      <c r="C215" s="214"/>
+      <c r="D215" s="212"/>
+      <c r="E215" s="212"/>
       <c r="F215" s="216"/>
       <c r="G215" s="142"/>
     </row>
     <row r="216" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="213"/>
+      <c r="A216" s="211"/>
       <c r="B216" s="147"/>
-      <c r="C216" s="218"/>
-      <c r="D216" s="213"/>
-      <c r="E216" s="213"/>
+      <c r="C216" s="213"/>
+      <c r="D216" s="211"/>
+      <c r="E216" s="211"/>
       <c r="F216" s="215"/>
       <c r="G216" s="142"/>
     </row>
     <row r="217" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="214"/>
+      <c r="A217" s="212"/>
       <c r="B217" s="150"/>
-      <c r="C217" s="219"/>
-      <c r="D217" s="214"/>
-      <c r="E217" s="214"/>
+      <c r="C217" s="214"/>
+      <c r="D217" s="212"/>
+      <c r="E217" s="212"/>
       <c r="F217" s="216"/>
       <c r="G217" s="142"/>
     </row>
     <row r="218" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="213"/>
+      <c r="A218" s="211"/>
       <c r="B218" s="147"/>
-      <c r="C218" s="218"/>
-      <c r="D218" s="213"/>
-      <c r="E218" s="213"/>
+      <c r="C218" s="213"/>
+      <c r="D218" s="211"/>
+      <c r="E218" s="211"/>
       <c r="F218" s="215"/>
       <c r="G218" s="142"/>
     </row>
     <row r="219" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="214"/>
+      <c r="A219" s="212"/>
       <c r="B219" s="150"/>
-      <c r="C219" s="219"/>
-      <c r="D219" s="214"/>
-      <c r="E219" s="214"/>
+      <c r="C219" s="214"/>
+      <c r="D219" s="212"/>
+      <c r="E219" s="212"/>
       <c r="F219" s="216"/>
       <c r="G219" s="142"/>
     </row>
     <row r="220" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="213"/>
+      <c r="A220" s="211"/>
       <c r="B220" s="147"/>
-      <c r="C220" s="218"/>
-      <c r="D220" s="213"/>
-      <c r="E220" s="213"/>
+      <c r="C220" s="213"/>
+      <c r="D220" s="211"/>
+      <c r="E220" s="211"/>
       <c r="F220" s="215"/>
       <c r="G220" s="142"/>
     </row>
     <row r="221" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="214"/>
+      <c r="A221" s="212"/>
       <c r="B221" s="150"/>
-      <c r="C221" s="219"/>
-      <c r="D221" s="214"/>
-      <c r="E221" s="214"/>
+      <c r="C221" s="214"/>
+      <c r="D221" s="212"/>
+      <c r="E221" s="212"/>
       <c r="F221" s="216"/>
       <c r="G221" s="142"/>
     </row>
     <row r="222" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="213"/>
+      <c r="A222" s="211"/>
       <c r="B222" s="147"/>
-      <c r="C222" s="218"/>
-      <c r="D222" s="213"/>
-      <c r="E222" s="213"/>
+      <c r="C222" s="213"/>
+      <c r="D222" s="211"/>
+      <c r="E222" s="211"/>
       <c r="F222" s="215"/>
       <c r="G222" s="142"/>
     </row>
     <row r="223" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="214"/>
+      <c r="A223" s="212"/>
       <c r="B223" s="150"/>
-      <c r="C223" s="219"/>
-      <c r="D223" s="214"/>
-      <c r="E223" s="214"/>
+      <c r="C223" s="214"/>
+      <c r="D223" s="212"/>
+      <c r="E223" s="212"/>
       <c r="F223" s="216"/>
       <c r="G223" s="142"/>
     </row>
     <row r="224" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="213"/>
+      <c r="A224" s="211"/>
       <c r="B224" s="147"/>
-      <c r="C224" s="218"/>
-      <c r="D224" s="213"/>
-      <c r="E224" s="213"/>
+      <c r="C224" s="213"/>
+      <c r="D224" s="211"/>
+      <c r="E224" s="211"/>
       <c r="F224" s="215"/>
       <c r="G224" s="142"/>
     </row>
     <row r="225" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="214"/>
+      <c r="A225" s="212"/>
       <c r="B225" s="150"/>
-      <c r="C225" s="219"/>
-      <c r="D225" s="214"/>
-      <c r="E225" s="214"/>
+      <c r="C225" s="214"/>
+      <c r="D225" s="212"/>
+      <c r="E225" s="212"/>
       <c r="F225" s="216"/>
       <c r="G225" s="142"/>
     </row>
     <row r="226" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="213"/>
+      <c r="A226" s="211"/>
       <c r="B226" s="147"/>
-      <c r="C226" s="218"/>
-      <c r="D226" s="213"/>
-      <c r="E226" s="213"/>
+      <c r="C226" s="213"/>
+      <c r="D226" s="211"/>
+      <c r="E226" s="211"/>
       <c r="F226" s="215"/>
       <c r="G226" s="142"/>
     </row>
     <row r="227" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="214"/>
+      <c r="A227" s="212"/>
       <c r="B227" s="150"/>
-      <c r="C227" s="219"/>
-      <c r="D227" s="214"/>
-      <c r="E227" s="214"/>
+      <c r="C227" s="214"/>
+      <c r="D227" s="212"/>
+      <c r="E227" s="212"/>
       <c r="F227" s="216"/>
       <c r="G227" s="142"/>
     </row>
     <row r="228" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="213"/>
+      <c r="A228" s="211"/>
       <c r="B228" s="147"/>
-      <c r="C228" s="218"/>
-      <c r="D228" s="213"/>
-      <c r="E228" s="213"/>
+      <c r="C228" s="213"/>
+      <c r="D228" s="211"/>
+      <c r="E228" s="211"/>
       <c r="F228" s="215"/>
       <c r="G228" s="142"/>
     </row>
     <row r="229" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="214"/>
+      <c r="A229" s="212"/>
       <c r="B229" s="150"/>
-      <c r="C229" s="219"/>
-      <c r="D229" s="214"/>
-      <c r="E229" s="214"/>
+      <c r="C229" s="214"/>
+      <c r="D229" s="212"/>
+      <c r="E229" s="212"/>
       <c r="F229" s="216"/>
       <c r="G229" s="142"/>
     </row>
     <row r="230" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="213"/>
+      <c r="A230" s="211"/>
       <c r="B230" s="147"/>
-      <c r="C230" s="218"/>
-      <c r="D230" s="213"/>
-      <c r="E230" s="213"/>
+      <c r="C230" s="213"/>
+      <c r="D230" s="211"/>
+      <c r="E230" s="211"/>
       <c r="F230" s="215"/>
       <c r="G230" s="142"/>
     </row>
     <row r="231" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="214"/>
+      <c r="A231" s="212"/>
       <c r="B231" s="150"/>
-      <c r="C231" s="219"/>
-      <c r="D231" s="214"/>
-      <c r="E231" s="214"/>
+      <c r="C231" s="214"/>
+      <c r="D231" s="212"/>
+      <c r="E231" s="212"/>
       <c r="F231" s="216"/>
       <c r="G231" s="142"/>
     </row>
     <row r="232" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="213"/>
+      <c r="A232" s="211"/>
       <c r="B232" s="147"/>
-      <c r="C232" s="218"/>
-      <c r="D232" s="213"/>
-      <c r="E232" s="213"/>
+      <c r="C232" s="213"/>
+      <c r="D232" s="211"/>
+      <c r="E232" s="211"/>
       <c r="F232" s="215"/>
       <c r="G232" s="142"/>
     </row>
     <row r="233" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="214"/>
+      <c r="A233" s="212"/>
       <c r="B233" s="150"/>
-      <c r="C233" s="219"/>
-      <c r="D233" s="214"/>
-      <c r="E233" s="214"/>
+      <c r="C233" s="214"/>
+      <c r="D233" s="212"/>
+      <c r="E233" s="212"/>
       <c r="F233" s="216"/>
       <c r="G233" s="142"/>
     </row>
     <row r="234" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A234" s="213"/>
+      <c r="A234" s="211"/>
       <c r="B234" s="147"/>
-      <c r="C234" s="218"/>
-      <c r="D234" s="213"/>
-      <c r="E234" s="213"/>
+      <c r="C234" s="213"/>
+      <c r="D234" s="211"/>
+      <c r="E234" s="211"/>
       <c r="F234" s="215"/>
       <c r="G234" s="142"/>
     </row>
     <row r="235" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="214"/>
+      <c r="A235" s="212"/>
       <c r="B235" s="150"/>
-      <c r="C235" s="219"/>
-      <c r="D235" s="214"/>
-      <c r="E235" s="214"/>
+      <c r="C235" s="214"/>
+      <c r="D235" s="212"/>
+      <c r="E235" s="212"/>
       <c r="F235" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="585">
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A204:A205"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:F175"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:F177"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:F179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="F206:F207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="F220:F221"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="E230:E231"/>
+    <mergeCell ref="F230:F231"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="F226:F227"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="C222:C223"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
@@ -10660,462 +11071,111 @@
     <mergeCell ref="D190:D191"/>
     <mergeCell ref="E190:E191"/>
     <mergeCell ref="C182:C183"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="E230:E231"/>
-    <mergeCell ref="F230:F231"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="E226:E227"/>
-    <mergeCell ref="F226:F227"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="E228:E229"/>
-    <mergeCell ref="F228:F229"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="E224:E225"/>
-    <mergeCell ref="F224:F225"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="F220:F221"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="F206:F207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:F205"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:F193"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:F179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:F175"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:F177"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11295,7 +11355,7 @@
       <c r="A6" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="226" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="204" t="s">
@@ -11304,7 +11364,7 @@
       <c r="D6" s="201" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="234" t="s">
+      <c r="E6" s="229" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="201" t="s">
@@ -11595,14 +11655,14 @@
       <c r="CW6" s="6"/>
     </row>
     <row r="7" spans="1:256" s="99" customFormat="1" ht="43.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="230"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="233"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
+      <c r="A7" s="225"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="228"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
       <c r="I7" s="137"/>
       <c r="J7" s="98"/>
       <c r="K7" s="98"/>
@@ -11855,10 +11915,10 @@
       <c r="IV7" s="49"/>
     </row>
     <row r="8" spans="1:256" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="220" t="s">
         <v>146</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -11964,8 +12024,8 @@
       <c r="CW8" s="186"/>
     </row>
     <row r="9" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="228"/>
-      <c r="B9" s="226"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="41" t="s">
         <v>147</v>
       </c>
@@ -12224,10 +12284,10 @@
       <c r="IV9" s="8"/>
     </row>
     <row r="10" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="217" t="s">
+      <c r="A10" s="219" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="232" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -12333,8 +12393,8 @@
       <c r="CW10" s="6"/>
     </row>
     <row r="11" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="229"/>
-      <c r="B11" s="223"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="42" t="s">
         <v>66</v>
       </c>
@@ -12438,8 +12498,8 @@
       <c r="CW11" s="6"/>
     </row>
     <row r="12" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="229"/>
-      <c r="B12" s="223"/>
+      <c r="A12" s="224"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="42" t="s">
         <v>67</v>
       </c>
@@ -12543,8 +12603,8 @@
       <c r="CW12" s="6"/>
     </row>
     <row r="13" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="229"/>
-      <c r="B13" s="223"/>
+      <c r="A13" s="224"/>
+      <c r="B13" s="233"/>
       <c r="C13" s="42" t="s">
         <v>68</v>
       </c>
@@ -12648,8 +12708,8 @@
       <c r="CW13" s="6"/>
     </row>
     <row r="14" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="229"/>
-      <c r="B14" s="223"/>
+      <c r="A14" s="224"/>
+      <c r="B14" s="233"/>
       <c r="C14" s="42" t="s">
         <v>69</v>
       </c>
@@ -12753,10 +12813,10 @@
       <c r="CW14" s="6"/>
     </row>
     <row r="15" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="230" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="222" t="s">
+      <c r="B15" s="232" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -12862,8 +12922,8 @@
       <c r="CW15" s="6"/>
     </row>
     <row r="16" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="221"/>
-      <c r="B16" s="223"/>
+      <c r="A16" s="231"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="129" t="s">
         <v>149</v>
       </c>
@@ -12967,8 +13027,8 @@
       <c r="CW16" s="6"/>
     </row>
     <row r="17" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="221"/>
-      <c r="B17" s="223"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="129" t="s">
         <v>144</v>
       </c>
@@ -13072,8 +13132,8 @@
       <c r="CW17" s="6"/>
     </row>
     <row r="18" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="221"/>
-      <c r="B18" s="223"/>
+      <c r="A18" s="231"/>
+      <c r="B18" s="233"/>
       <c r="C18" s="126" t="s">
         <v>155</v>
       </c>
@@ -13177,8 +13237,8 @@
       <c r="CW18" s="6"/>
     </row>
     <row r="19" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="221"/>
-      <c r="B19" s="222" t="s">
+      <c r="A19" s="231"/>
+      <c r="B19" s="232" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="127" t="s">
@@ -13284,8 +13344,8 @@
       <c r="CW19" s="6"/>
     </row>
     <row r="20" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="221"/>
-      <c r="B20" s="223"/>
+      <c r="A20" s="231"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="126" t="s">
         <v>138</v>
       </c>
@@ -13389,7 +13449,7 @@
       <c r="CW20" s="6"/>
     </row>
     <row r="21" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="221"/>
+      <c r="A21" s="231"/>
       <c r="B21" s="66" t="s">
         <v>153</v>
       </c>
@@ -13494,7 +13554,7 @@
       <c r="CW21" s="6"/>
     </row>
     <row r="22" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="221"/>
+      <c r="A22" s="231"/>
       <c r="B22" s="112" t="s">
         <v>150</v>
       </c>
@@ -13599,7 +13659,7 @@
       <c r="CW22" s="6"/>
     </row>
     <row r="23" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="221"/>
+      <c r="A23" s="231"/>
       <c r="B23" s="66" t="s">
         <v>102</v>
       </c>
@@ -13704,7 +13764,7 @@
       <c r="CW23" s="6"/>
     </row>
     <row r="24" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="221"/>
+      <c r="A24" s="231"/>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
       <c r="D24" s="3"/>
@@ -13807,7 +13867,7 @@
       <c r="CW24" s="6"/>
     </row>
     <row r="25" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="221"/>
+      <c r="A25" s="231"/>
       <c r="B25" s="43"/>
       <c r="C25" s="42"/>
       <c r="D25" s="3"/>
@@ -13910,7 +13970,7 @@
       <c r="CW25" s="6"/>
     </row>
     <row r="26" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="221"/>
+      <c r="A26" s="231"/>
       <c r="B26" s="43"/>
       <c r="C26" s="42"/>
       <c r="D26" s="3"/>
@@ -14013,7 +14073,7 @@
       <c r="CW26" s="6"/>
     </row>
     <row r="27" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="224"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
       <c r="D27" s="3"/>
@@ -14127,18 +14187,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}">
+    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0">
       <pane xSplit="7" ySplit="7" topLeftCell="AC17" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
       <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
       <pageSetup paperSize="8" scale="51" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="AC17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
-      <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-      <pageSetup paperSize="8" scale="51" orientation="landscape" r:id="rId2"/>
+    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0">
+      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
+      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+      <pageSetup paperSize="8" scale="75" orientation="landscape" verticalDpi="0" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{9B6A725A-C080-4BD2-9734-6B581A745C14}" showRuler="0">
@@ -14148,14 +14208,14 @@
       <pageSetup paperSize="8" scale="75" orientation="landscape" verticalDpi="0" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" scale="85" showRuler="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
-      <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-      <pageSetup paperSize="8" scale="75" orientation="landscape" verticalDpi="0" r:id="rId4"/>
+    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0">
+      <pane xSplit="7" ySplit="7" topLeftCell="AC17" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
+      <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+      <pageSetup paperSize="8" scale="51" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0">
+    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}">
       <pane xSplit="7" ySplit="7" topLeftCell="AC17" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
       <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -14164,6 +14224,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A14"/>
@@ -14176,11 +14241,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14258,16 +14318,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}">
+    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0">
       <selection activeCell="C38" sqref="C38"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" showRuler="0">
+      <selection activeCell="K17" sqref="K17"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{A6F0DBC3-E4B8-4F92-918E-E4362FFA54B3}" showRuler="0">
+      <selection activeCell="E42" sqref="E42"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{9B6A725A-C080-4BD2-9734-6B581A745C14}" showRuler="0" topLeftCell="A25">
@@ -14275,18 +14340,13 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{A6F0DBC3-E4B8-4F92-918E-E4362FFA54B3}" showRuler="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{A7A96248-487E-469E-B7D9-87B4ED7F0C00}" showRuler="0">
+      <selection activeCell="C38" sqref="C38"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+      <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{6D620F4E-9EB4-4233-B8CA-063E83F30A84}" showRuler="0">
-      <selection activeCell="K17" sqref="K17"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{4DB3275E-3104-4B47-96E3-503015B2DC51}" showRuler="0">
+    <customSheetView guid="{B947C879-8C60-412E-9CD3-C4C5AA0B3A7D}">
       <selection activeCell="C38" sqref="C38"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
       <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId4"/>
